--- a/水泥.excel/1110/1110(102.1~105.4)3.xlsx
+++ b/水泥.excel/1110/1110(102.1~105.4)3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>金額_x</t>
   </si>
@@ -115,2026 +115,160 @@
     <t>不動產、廠房及設備</t>
   </si>
   <si>
-    <t>340,998</t>
-  </si>
-  <si>
-    <t>339,573</t>
-  </si>
-  <si>
-    <t>337,482</t>
-  </si>
-  <si>
-    <t>337,071</t>
-  </si>
-  <si>
-    <t>336,900</t>
-  </si>
-  <si>
-    <t>339,535</t>
-  </si>
-  <si>
-    <t>340,533</t>
-  </si>
-  <si>
-    <t>337,341</t>
-  </si>
-  <si>
-    <t>338,868</t>
-  </si>
-  <si>
-    <t>338,844</t>
-  </si>
-  <si>
-    <t>342,602</t>
-  </si>
-  <si>
-    <t>349,465</t>
-  </si>
-  <si>
-    <t>269,053</t>
-  </si>
-  <si>
-    <t>265,161</t>
-  </si>
-  <si>
-    <t>252,394</t>
-  </si>
-  <si>
-    <t>250,890</t>
-  </si>
-  <si>
     <t>以成本衡量之金融資產－非流動淨額</t>
   </si>
   <si>
-    <t>680,380</t>
-  </si>
-  <si>
-    <t>469,791</t>
-  </si>
-  <si>
-    <t>469,479</t>
-  </si>
-  <si>
-    <t>475,339</t>
-  </si>
-  <si>
-    <t>511,326</t>
-  </si>
-  <si>
-    <t>551,326</t>
-  </si>
-  <si>
-    <t>546,889</t>
-  </si>
-  <si>
-    <t>542,489</t>
-  </si>
-  <si>
-    <t>539,115</t>
-  </si>
-  <si>
-    <t>537,364</t>
-  </si>
-  <si>
-    <t>539,276</t>
-  </si>
-  <si>
-    <t>536,636</t>
-  </si>
-  <si>
-    <t>532,993</t>
-  </si>
-  <si>
-    <t>513,828</t>
-  </si>
-  <si>
     <t>保留盈餘合計</t>
   </si>
   <si>
-    <t>1,927,974</t>
-  </si>
-  <si>
-    <t>1,887,764</t>
-  </si>
-  <si>
-    <t>1,996,579</t>
-  </si>
-  <si>
-    <t>1,956,322</t>
-  </si>
-  <si>
-    <t>2,024,289</t>
-  </si>
-  <si>
-    <t>1,946,398</t>
-  </si>
-  <si>
-    <t>2,009,648</t>
-  </si>
-  <si>
-    <t>1,983,703</t>
-  </si>
-  <si>
-    <t>2,019,536</t>
-  </si>
-  <si>
-    <t>1,929,932</t>
-  </si>
-  <si>
-    <t>1,991,201</t>
-  </si>
-  <si>
-    <t>2,013,075</t>
-  </si>
-  <si>
-    <t>2,130,538</t>
-  </si>
-  <si>
-    <t>2,034,346</t>
-  </si>
-  <si>
-    <t>2,025,366</t>
-  </si>
-  <si>
-    <t>2,007,235</t>
-  </si>
-  <si>
     <t>備供出售金融資產－非流動淨額</t>
   </si>
   <si>
-    <t>1,040,647</t>
-  </si>
-  <si>
-    <t>989,623</t>
-  </si>
-  <si>
-    <t>1,038,537</t>
-  </si>
-  <si>
-    <t>1,131,535</t>
-  </si>
-  <si>
-    <t>1,208,285</t>
-  </si>
-  <si>
-    <t>1,289,977</t>
-  </si>
-  <si>
-    <t>1,258,141</t>
-  </si>
-  <si>
-    <t>1,243,482</t>
-  </si>
-  <si>
-    <t>1,303,187</t>
-  </si>
-  <si>
-    <t>1,252,050</t>
-  </si>
-  <si>
-    <t>979,838</t>
-  </si>
-  <si>
-    <t>999,674</t>
-  </si>
-  <si>
-    <t>1,053,705</t>
-  </si>
-  <si>
-    <t>972,589</t>
-  </si>
-  <si>
-    <t>945,443</t>
-  </si>
-  <si>
-    <t>909,763</t>
-  </si>
-  <si>
     <t>其他應付款</t>
   </si>
   <si>
-    <t>90,821</t>
-  </si>
-  <si>
-    <t>152,641</t>
-  </si>
-  <si>
-    <t>91,653</t>
-  </si>
-  <si>
-    <t>120,183</t>
-  </si>
-  <si>
-    <t>96,868</t>
-  </si>
-  <si>
-    <t>220,987</t>
-  </si>
-  <si>
-    <t>110,722</t>
-  </si>
-  <si>
-    <t>114,934</t>
-  </si>
-  <si>
-    <t>83,223</t>
-  </si>
-  <si>
-    <t>199,065</t>
-  </si>
-  <si>
-    <t>132,271</t>
-  </si>
-  <si>
-    <t>189,185</t>
-  </si>
-  <si>
-    <t>113,798</t>
-  </si>
-  <si>
-    <t>182,552</t>
-  </si>
-  <si>
-    <t>70,153</t>
-  </si>
-  <si>
-    <t>74,258</t>
-  </si>
-  <si>
     <t>其他應收款淨額</t>
   </si>
   <si>
-    <t>10,886</t>
-  </si>
-  <si>
-    <t>4,224</t>
-  </si>
-  <si>
-    <t>1,113</t>
-  </si>
-  <si>
-    <t>1,342</t>
-  </si>
-  <si>
-    <t>346</t>
-  </si>
-  <si>
-    <t>5,030</t>
-  </si>
-  <si>
-    <t>292</t>
-  </si>
-  <si>
-    <t>12,373</t>
-  </si>
-  <si>
-    <t>86,496</t>
-  </si>
-  <si>
-    <t>26,566</t>
-  </si>
-  <si>
-    <t>8,242</t>
-  </si>
-  <si>
-    <t>508</t>
-  </si>
-  <si>
-    <t>3,114</t>
-  </si>
-  <si>
-    <t>1,892</t>
-  </si>
-  <si>
-    <t>1,553</t>
-  </si>
-  <si>
-    <t>9,989</t>
-  </si>
-  <si>
     <t>其他應收款－關係人淨額</t>
   </si>
   <si>
-    <t>22,402</t>
-  </si>
-  <si>
-    <t>6,643</t>
-  </si>
-  <si>
-    <t>1,802</t>
-  </si>
-  <si>
     <t>其他權益合計</t>
   </si>
   <si>
-    <t>736,976</t>
-  </si>
-  <si>
-    <t>691,152</t>
-  </si>
-  <si>
-    <t>745,815</t>
-  </si>
-  <si>
-    <t>831,642</t>
-  </si>
-  <si>
-    <t>915,192</t>
-  </si>
-  <si>
-    <t>996,470</t>
-  </si>
-  <si>
-    <t>964,883</t>
-  </si>
-  <si>
-    <t>948,426</t>
-  </si>
-  <si>
-    <t>1,008,307</t>
-  </si>
-  <si>
-    <t>956,655</t>
-  </si>
-  <si>
-    <t>678,882</t>
-  </si>
-  <si>
-    <t>699,498</t>
-  </si>
-  <si>
-    <t>759,833</t>
-  </si>
-  <si>
-    <t>671,818</t>
-  </si>
-  <si>
-    <t>649,723</t>
-  </si>
-  <si>
-    <t>607,502</t>
-  </si>
-  <si>
     <t>其他流動負債</t>
   </si>
   <si>
-    <t>111,537</t>
-  </si>
-  <si>
-    <t>159,417</t>
-  </si>
-  <si>
-    <t>137,277</t>
-  </si>
-  <si>
-    <t>145,641</t>
-  </si>
-  <si>
-    <t>141,058</t>
-  </si>
-  <si>
-    <t>125,019</t>
-  </si>
-  <si>
-    <t>90,600</t>
-  </si>
-  <si>
-    <t>105,320</t>
-  </si>
-  <si>
-    <t>67,885</t>
-  </si>
-  <si>
-    <t>80,939</t>
-  </si>
-  <si>
-    <t>68,918</t>
-  </si>
-  <si>
-    <t>119,528</t>
-  </si>
-  <si>
-    <t>66,240</t>
-  </si>
-  <si>
-    <t>91,059</t>
-  </si>
-  <si>
-    <t>61,377</t>
-  </si>
-  <si>
-    <t>20,101</t>
-  </si>
-  <si>
     <t>其他流動資產</t>
   </si>
   <si>
-    <t>168,340</t>
-  </si>
-  <si>
-    <t>168,498</t>
-  </si>
-  <si>
-    <t>239,593</t>
-  </si>
-  <si>
-    <t>229,243</t>
-  </si>
-  <si>
-    <t>209,095</t>
-  </si>
-  <si>
-    <t>209,152</t>
-  </si>
-  <si>
-    <t>194,793</t>
-  </si>
-  <si>
-    <t>211,411</t>
-  </si>
-  <si>
-    <t>229,562</t>
-  </si>
-  <si>
-    <t>170,680</t>
-  </si>
-  <si>
-    <t>185,540</t>
-  </si>
-  <si>
-    <t>173,680</t>
-  </si>
-  <si>
-    <t>261,467</t>
-  </si>
-  <si>
-    <t>532,028</t>
-  </si>
-  <si>
-    <t>486,126</t>
-  </si>
-  <si>
-    <t>449,758</t>
-  </si>
-  <si>
     <t>其他非流動負債</t>
   </si>
   <si>
-    <t>155,240</t>
-  </si>
-  <si>
-    <t>144,037</t>
-  </si>
-  <si>
-    <t>128,118</t>
-  </si>
-  <si>
-    <t>118,035</t>
-  </si>
-  <si>
-    <t>117,988</t>
-  </si>
-  <si>
-    <t>117,480</t>
-  </si>
-  <si>
-    <t>117,196</t>
-  </si>
-  <si>
-    <t>116,956</t>
-  </si>
-  <si>
-    <t>117,304</t>
-  </si>
-  <si>
-    <t>16,984</t>
-  </si>
-  <si>
-    <t>17,371</t>
-  </si>
-  <si>
-    <t>18,066</t>
-  </si>
-  <si>
-    <t>29,337</t>
-  </si>
-  <si>
-    <t>29,234</t>
-  </si>
-  <si>
-    <t>25,615</t>
-  </si>
-  <si>
-    <t>23,725</t>
-  </si>
-  <si>
     <t>其他非流動資產</t>
   </si>
   <si>
-    <t>239,145</t>
-  </si>
-  <si>
-    <t>36,115</t>
-  </si>
-  <si>
-    <t>35,915</t>
-  </si>
-  <si>
-    <t>35,848</t>
-  </si>
-  <si>
-    <t>34,998</t>
-  </si>
-  <si>
-    <t>34,798</t>
-  </si>
-  <si>
-    <t>34,648</t>
-  </si>
-  <si>
-    <t>33,053</t>
-  </si>
-  <si>
-    <t>33,024</t>
-  </si>
-  <si>
-    <t>33,025</t>
-  </si>
-  <si>
-    <t>32,808</t>
-  </si>
-  <si>
-    <t>32,478</t>
-  </si>
-  <si>
-    <t>33,226</t>
-  </si>
-  <si>
-    <t>32,792</t>
-  </si>
-  <si>
     <t>存貨</t>
   </si>
   <si>
-    <t>384,335</t>
-  </si>
-  <si>
-    <t>419,563</t>
-  </si>
-  <si>
-    <t>396,626</t>
-  </si>
-  <si>
-    <t>383,651</t>
-  </si>
-  <si>
-    <t>474,491</t>
-  </si>
-  <si>
-    <t>437,011</t>
-  </si>
-  <si>
-    <t>404,753</t>
-  </si>
-  <si>
-    <t>428,468</t>
-  </si>
-  <si>
-    <t>483,444</t>
-  </si>
-  <si>
-    <t>620,851</t>
-  </si>
-  <si>
-    <t>542,745</t>
-  </si>
-  <si>
-    <t>553,881</t>
-  </si>
-  <si>
-    <t>548,952</t>
-  </si>
-  <si>
-    <t>600,697</t>
-  </si>
-  <si>
-    <t>638,178</t>
-  </si>
-  <si>
-    <t>587,394</t>
-  </si>
-  <si>
     <t>庫藏股票</t>
   </si>
   <si>
-    <t>-12,185</t>
-  </si>
-  <si>
     <t>待註銷股本股數（單位：股）</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>應付帳款</t>
   </si>
   <si>
-    <t>48,598</t>
-  </si>
-  <si>
-    <t>33,562</t>
-  </si>
-  <si>
-    <t>40,582</t>
-  </si>
-  <si>
-    <t>46,040</t>
-  </si>
-  <si>
-    <t>102,944</t>
-  </si>
-  <si>
-    <t>49,162</t>
-  </si>
-  <si>
-    <t>69,306</t>
-  </si>
-  <si>
-    <t>49,178</t>
-  </si>
-  <si>
-    <t>62,041</t>
-  </si>
-  <si>
-    <t>80,101</t>
-  </si>
-  <si>
-    <t>27,678</t>
-  </si>
-  <si>
-    <t>47,046</t>
-  </si>
-  <si>
-    <t>38,549</t>
-  </si>
-  <si>
-    <t>84,381</t>
-  </si>
-  <si>
-    <t>92,332</t>
-  </si>
-  <si>
-    <t>87,459</t>
-  </si>
-  <si>
     <t>應付帳款－關係人</t>
   </si>
   <si>
-    <t>33,598</t>
-  </si>
-  <si>
-    <t>37,397</t>
-  </si>
-  <si>
-    <t>24,864</t>
-  </si>
-  <si>
-    <t>15,656</t>
-  </si>
-  <si>
-    <t>9,059</t>
-  </si>
-  <si>
-    <t>20,471</t>
-  </si>
-  <si>
-    <t>15,367</t>
-  </si>
-  <si>
-    <t>22,120</t>
-  </si>
-  <si>
-    <t>41,328</t>
-  </si>
-  <si>
-    <t>9,954</t>
-  </si>
-  <si>
-    <t>28,938</t>
-  </si>
-  <si>
-    <t>19,446</t>
-  </si>
-  <si>
-    <t>80,636</t>
-  </si>
-  <si>
-    <t>92,009</t>
-  </si>
-  <si>
-    <t>60,434</t>
-  </si>
-  <si>
     <t>應付短期票券</t>
   </si>
   <si>
     <t>應付票據</t>
   </si>
   <si>
-    <t>898</t>
-  </si>
-  <si>
     <t>應收帳款淨額</t>
   </si>
   <si>
-    <t>57,920</t>
-  </si>
-  <si>
-    <t>82,513</t>
-  </si>
-  <si>
-    <t>44,483</t>
-  </si>
-  <si>
-    <t>89,103</t>
-  </si>
-  <si>
-    <t>60,973</t>
-  </si>
-  <si>
-    <t>61,505</t>
-  </si>
-  <si>
-    <t>81,796</t>
-  </si>
-  <si>
-    <t>91,368</t>
-  </si>
-  <si>
-    <t>64,064</t>
-  </si>
-  <si>
-    <t>57,186</t>
-  </si>
-  <si>
-    <t>66,678</t>
-  </si>
-  <si>
-    <t>81,728</t>
-  </si>
-  <si>
-    <t>51,569</t>
-  </si>
-  <si>
-    <t>38,557</t>
-  </si>
-  <si>
-    <t>51,297</t>
-  </si>
-  <si>
-    <t>70,612</t>
-  </si>
-  <si>
     <t>應收帳款－關係人淨額</t>
   </si>
   <si>
-    <t>20,995</t>
-  </si>
-  <si>
-    <t>25,699</t>
-  </si>
-  <si>
-    <t>16,353</t>
-  </si>
-  <si>
-    <t>25,414</t>
-  </si>
-  <si>
-    <t>21,344</t>
-  </si>
-  <si>
-    <t>16,034</t>
-  </si>
-  <si>
-    <t>19,745</t>
-  </si>
-  <si>
-    <t>17,799</t>
-  </si>
-  <si>
-    <t>16,454</t>
-  </si>
-  <si>
-    <t>30,549</t>
-  </si>
-  <si>
-    <t>17,049</t>
-  </si>
-  <si>
-    <t>19,172</t>
-  </si>
-  <si>
-    <t>12,248</t>
-  </si>
-  <si>
-    <t>11,426</t>
-  </si>
-  <si>
-    <t>9,486</t>
-  </si>
-  <si>
-    <t>17,918</t>
-  </si>
-  <si>
     <t>應收票據淨額</t>
   </si>
   <si>
-    <t>263,544</t>
-  </si>
-  <si>
-    <t>286,463</t>
-  </si>
-  <si>
-    <t>289,211</t>
-  </si>
-  <si>
-    <t>310,702</t>
-  </si>
-  <si>
-    <t>271,790</t>
-  </si>
-  <si>
-    <t>288,822</t>
-  </si>
-  <si>
-    <t>238,920</t>
-  </si>
-  <si>
-    <t>355,813</t>
-  </si>
-  <si>
-    <t>271,681</t>
-  </si>
-  <si>
-    <t>265,312</t>
-  </si>
-  <si>
-    <t>226,561</t>
-  </si>
-  <si>
-    <t>327,836</t>
-  </si>
-  <si>
-    <t>228,739</t>
-  </si>
-  <si>
-    <t>304,323</t>
-  </si>
-  <si>
-    <t>196,319</t>
-  </si>
-  <si>
-    <t>206,661</t>
-  </si>
-  <si>
     <t>投資性不動產淨額</t>
   </si>
   <si>
-    <t>5,254,599</t>
-  </si>
-  <si>
-    <t>5,247,263</t>
-  </si>
-  <si>
-    <t>5,240,064</t>
-  </si>
-  <si>
-    <t>5,126,465</t>
-  </si>
-  <si>
-    <t>5,121,921</t>
-  </si>
-  <si>
-    <t>5,115,959</t>
-  </si>
-  <si>
-    <t>5,111,614</t>
-  </si>
-  <si>
-    <t>5,001,968</t>
-  </si>
-  <si>
-    <t>5,000,187</t>
-  </si>
-  <si>
-    <t>4,998,423</t>
-  </si>
-  <si>
-    <t>4,987,432</t>
-  </si>
-  <si>
-    <t>4,985,675</t>
-  </si>
-  <si>
-    <t>4,996,051</t>
-  </si>
-  <si>
-    <t>4,990,622</t>
-  </si>
-  <si>
-    <t>4,988,674</t>
-  </si>
-  <si>
-    <t>4,987,695</t>
-  </si>
-  <si>
     <t>採用權益法之投資淨額</t>
   </si>
   <si>
-    <t>606,757</t>
-  </si>
-  <si>
-    <t>755,936</t>
-  </si>
-  <si>
-    <t>756,757</t>
-  </si>
-  <si>
-    <t>761,683</t>
-  </si>
-  <si>
-    <t>757,852</t>
-  </si>
-  <si>
-    <t>578,048</t>
-  </si>
-  <si>
-    <t>577,938</t>
-  </si>
-  <si>
-    <t>581,924</t>
-  </si>
-  <si>
-    <t>450,534</t>
-  </si>
-  <si>
-    <t>440,365</t>
-  </si>
-  <si>
-    <t>442,016</t>
-  </si>
-  <si>
-    <t>437,957</t>
-  </si>
-  <si>
-    <t>438,120</t>
-  </si>
-  <si>
-    <t>430,592</t>
-  </si>
-  <si>
-    <t>434,152</t>
-  </si>
-  <si>
-    <t>437,381</t>
-  </si>
-  <si>
     <t>普通股股本</t>
   </si>
   <si>
-    <t>5,720,008</t>
-  </si>
-  <si>
     <t>未分配盈餘（或待彌補虧損）</t>
   </si>
   <si>
-    <t>132,217</t>
-  </si>
-  <si>
-    <t>86,736</t>
-  </si>
-  <si>
-    <t>195,551</t>
-  </si>
-  <si>
-    <t>155,294</t>
-  </si>
-  <si>
-    <t>223,261</t>
-  </si>
-  <si>
-    <t>130,767</t>
-  </si>
-  <si>
-    <t>194,017</t>
-  </si>
-  <si>
-    <t>168,072</t>
-  </si>
-  <si>
-    <t>203,905</t>
-  </si>
-  <si>
-    <t>100,125</t>
-  </si>
-  <si>
-    <t>161,394</t>
-  </si>
-  <si>
-    <t>183,268</t>
-  </si>
-  <si>
-    <t>300,731</t>
-  </si>
-  <si>
-    <t>190,140</t>
-  </si>
-  <si>
-    <t>181,160</t>
-  </si>
-  <si>
-    <t>169,633</t>
-  </si>
-  <si>
     <t>本期所得稅負債</t>
   </si>
   <si>
-    <t>6,607</t>
-  </si>
-  <si>
-    <t>1,175</t>
-  </si>
-  <si>
-    <t>1,093</t>
-  </si>
-  <si>
-    <t>1,029</t>
-  </si>
-  <si>
-    <t>5,456</t>
-  </si>
-  <si>
-    <t>5,225</t>
-  </si>
-  <si>
-    <t>5,170</t>
-  </si>
-  <si>
-    <t>6,604</t>
-  </si>
-  <si>
     <t>本期所得稅資產</t>
   </si>
   <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
     <t>權益總計</t>
   </si>
   <si>
-    <t>8,590,987</t>
-  </si>
-  <si>
-    <t>8,504,676</t>
-  </si>
-  <si>
-    <t>8,668,372</t>
-  </si>
-  <si>
-    <t>8,714,799</t>
-  </si>
-  <si>
-    <t>8,866,521</t>
-  </si>
-  <si>
-    <t>8,869,812</t>
-  </si>
-  <si>
-    <t>8,901,673</t>
-  </si>
-  <si>
-    <t>8,859,325</t>
-  </si>
-  <si>
-    <t>8,955,192</t>
-  </si>
-  <si>
-    <t>8,813,796</t>
-  </si>
-  <si>
-    <t>8,597,414</t>
-  </si>
-  <si>
-    <t>8,639,693</t>
-  </si>
-  <si>
-    <t>8,916,640</t>
-  </si>
-  <si>
-    <t>8,732,738</t>
-  </si>
-  <si>
-    <t>8,701,916</t>
-  </si>
-  <si>
-    <t>8,640,850</t>
-  </si>
-  <si>
     <t>歸屬於母公司業主之權益合計</t>
   </si>
   <si>
-    <t>8,556,675</t>
-  </si>
-  <si>
-    <t>8,470,746</t>
-  </si>
-  <si>
-    <t>8,634,224</t>
-  </si>
-  <si>
-    <t>8,680,494</t>
-  </si>
-  <si>
-    <t>8,832,011</t>
-  </si>
-  <si>
-    <t>8,835,607</t>
-  </si>
-  <si>
-    <t>8,867,270</t>
-  </si>
-  <si>
-    <t>8,824,868</t>
-  </si>
-  <si>
-    <t>8,920,582</t>
-  </si>
-  <si>
-    <t>8,779,536</t>
-  </si>
-  <si>
-    <t>8,563,032</t>
-  </si>
-  <si>
-    <t>8,605,230</t>
-  </si>
-  <si>
-    <t>8,783,028</t>
-  </si>
-  <si>
-    <t>8,599,031</t>
-  </si>
-  <si>
-    <t>8,567,956</t>
-  </si>
-  <si>
-    <t>8,507,604</t>
-  </si>
-  <si>
     <t>母公司暨子公司所持有之母公司庫藏股股數（單位：股）</t>
   </si>
   <si>
-    <t>2,112,865</t>
-  </si>
-  <si>
     <t>法定盈餘公積</t>
   </si>
   <si>
-    <t>975,170</t>
-  </si>
-  <si>
-    <t>982,016</t>
-  </si>
-  <si>
-    <t>996,619</t>
-  </si>
-  <si>
-    <t>1,010,795</t>
-  </si>
-  <si>
-    <t>1,025,194</t>
-  </si>
-  <si>
     <t>流動負債合計</t>
   </si>
   <si>
-    <t>276,827</t>
-  </si>
-  <si>
-    <t>382,408</t>
-  </si>
-  <si>
-    <t>310,060</t>
-  </si>
-  <si>
-    <t>340,075</t>
-  </si>
-  <si>
-    <t>420,617</t>
-  </si>
-  <si>
-    <t>412,630</t>
-  </si>
-  <si>
-    <t>297,820</t>
-  </si>
-  <si>
-    <t>294,502</t>
-  </si>
-  <si>
-    <t>245,828</t>
-  </si>
-  <si>
-    <t>405,534</t>
-  </si>
-  <si>
-    <t>281,498</t>
-  </si>
-  <si>
-    <t>388,568</t>
-  </si>
-  <si>
-    <t>253,395</t>
-  </si>
-  <si>
-    <t>446,822</t>
-  </si>
-  <si>
-    <t>324,074</t>
-  </si>
-  <si>
-    <t>251,953</t>
-  </si>
-  <si>
     <t>流動資產合計</t>
   </si>
   <si>
-    <t>1,178,376</t>
-  </si>
-  <si>
-    <t>1,499,188</t>
-  </si>
-  <si>
-    <t>1,531,042</t>
-  </si>
-  <si>
-    <t>1,585,835</t>
-  </si>
-  <si>
-    <t>1,744,220</t>
-  </si>
-  <si>
-    <t>1,804,814</t>
-  </si>
-  <si>
-    <t>1,720,836</t>
-  </si>
-  <si>
-    <t>1,788,502</t>
-  </si>
-  <si>
-    <t>1,903,486</t>
-  </si>
-  <si>
-    <t>1,889,216</t>
-  </si>
-  <si>
-    <t>1,833,526</t>
-  </si>
-  <si>
-    <t>1,963,758</t>
-  </si>
-  <si>
-    <t>2,088,707</t>
-  </si>
-  <si>
-    <t>2,197,446</t>
-  </si>
-  <si>
-    <t>2,078,659</t>
-  </si>
-  <si>
-    <t>1,998,413</t>
-  </si>
-  <si>
     <t>無形資產</t>
   </si>
   <si>
-    <t>679</t>
-  </si>
-  <si>
-    <t>601</t>
-  </si>
-  <si>
-    <t>523</t>
-  </si>
-  <si>
-    <t>445</t>
-  </si>
-  <si>
-    <t>394</t>
-  </si>
-  <si>
-    <t>342</t>
-  </si>
-  <si>
-    <t>291</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>特別盈餘公積</t>
   </si>
   <si>
-    <t>820,587</t>
-  </si>
-  <si>
-    <t>819,012</t>
-  </si>
-  <si>
-    <t>812,408</t>
-  </si>
-  <si>
     <t>現金及約當現金</t>
   </si>
   <si>
-    <t>135,666</t>
-  </si>
-  <si>
-    <t>184,405</t>
-  </si>
-  <si>
-    <t>262,233</t>
-  </si>
-  <si>
-    <t>241,300</t>
-  </si>
-  <si>
-    <t>364,129</t>
-  </si>
-  <si>
-    <t>278,779</t>
-  </si>
-  <si>
-    <t>324,282</t>
-  </si>
-  <si>
-    <t>314,885</t>
-  </si>
-  <si>
-    <t>415,672</t>
-  </si>
-  <si>
-    <t>434,526</t>
-  </si>
-  <si>
-    <t>527,490</t>
-  </si>
-  <si>
-    <t>496,486</t>
-  </si>
-  <si>
-    <t>663,616</t>
-  </si>
-  <si>
-    <t>390,610</t>
-  </si>
-  <si>
-    <t>428,364</t>
-  </si>
-  <si>
-    <t>447,029</t>
-  </si>
-  <si>
     <t>當期所得稅負債</t>
   </si>
   <si>
-    <t>23,061</t>
-  </si>
-  <si>
-    <t>447</t>
-  </si>
-  <si>
-    <t>379</t>
-  </si>
-  <si>
-    <t>546</t>
-  </si>
-  <si>
-    <t>5,454</t>
-  </si>
-  <si>
-    <t>3,698</t>
-  </si>
-  <si>
     <t>當期所得稅資產</t>
   </si>
   <si>
-    <t>506</t>
-  </si>
-  <si>
-    <t>517</t>
-  </si>
-  <si>
-    <t>664</t>
-  </si>
-  <si>
-    <t>399</t>
-  </si>
-  <si>
-    <t>532</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>短期借款</t>
   </si>
   <si>
-    <t>60,670</t>
-  </si>
-  <si>
-    <t>7,000</t>
-  </si>
-  <si>
     <t>股本合計</t>
   </si>
   <si>
     <t>負債及權益總計</t>
   </si>
   <si>
-    <t>9,650,759</t>
-  </si>
-  <si>
-    <t>9,568,815</t>
-  </si>
-  <si>
-    <t>9,231,047</t>
-  </si>
-  <si>
-    <t>9,382,538</t>
-  </si>
-  <si>
-    <t>9,490,267</t>
-  </si>
-  <si>
-    <t>9,499,279</t>
-  </si>
-  <si>
-    <t>9,342,162</t>
-  </si>
-  <si>
-    <t>9,208,246</t>
-  </si>
-  <si>
     <t>負債準備－流動</t>
   </si>
   <si>
-    <t>2,810</t>
-  </si>
-  <si>
-    <t>2,743</t>
-  </si>
-  <si>
-    <t>2,772</t>
-  </si>
-  <si>
-    <t>2,801</t>
-  </si>
-  <si>
-    <t>2,875</t>
-  </si>
-  <si>
-    <t>2,949</t>
-  </si>
-  <si>
-    <t>3,023</t>
-  </si>
-  <si>
-    <t>3,096</t>
-  </si>
-  <si>
-    <t>3,054</t>
-  </si>
-  <si>
-    <t>2,926</t>
-  </si>
-  <si>
-    <t>41,584</t>
-  </si>
-  <si>
-    <t>2,842</t>
-  </si>
-  <si>
-    <t>2,906</t>
-  </si>
-  <si>
-    <t>2,969</t>
-  </si>
-  <si>
-    <t>3,033</t>
-  </si>
-  <si>
-    <t>3,097</t>
-  </si>
-  <si>
     <t>負債總計</t>
   </si>
   <si>
-    <t>760,286</t>
-  </si>
-  <si>
-    <t>853,946</t>
-  </si>
-  <si>
-    <t>765,985</t>
-  </si>
-  <si>
-    <t>783,740</t>
-  </si>
-  <si>
-    <t>865,779</t>
-  </si>
-  <si>
-    <t>858,197</t>
-  </si>
-  <si>
-    <t>745,766</t>
-  </si>
-  <si>
-    <t>743,412</t>
-  </si>
-  <si>
-    <t>695,567</t>
-  </si>
-  <si>
-    <t>755,019</t>
-  </si>
-  <si>
-    <t>633,633</t>
-  </si>
-  <si>
-    <t>742,845</t>
-  </si>
-  <si>
-    <t>573,627</t>
-  </si>
-  <si>
-    <t>766,541</t>
-  </si>
-  <si>
-    <t>640,246</t>
-  </si>
-  <si>
-    <t>567,396</t>
-  </si>
-  <si>
     <t>資本公積合計</t>
   </si>
   <si>
-    <t>183,902</t>
-  </si>
-  <si>
-    <t>184,007</t>
-  </si>
-  <si>
-    <t>184,707</t>
-  </si>
-  <si>
-    <t>184,916</t>
-  </si>
-  <si>
-    <t>185,126</t>
-  </si>
-  <si>
-    <t>184,834</t>
-  </si>
-  <si>
-    <t>185,044</t>
-  </si>
-  <si>
     <t>資產總計</t>
   </si>
   <si>
-    <t>9,351,273</t>
-  </si>
-  <si>
-    <t>9,358,622</t>
-  </si>
-  <si>
-    <t>9,434,357</t>
-  </si>
-  <si>
-    <t>9,498,539</t>
-  </si>
-  <si>
-    <t>9,732,300</t>
-  </si>
-  <si>
-    <t>9,728,009</t>
-  </si>
-  <si>
-    <t>9,647,439</t>
-  </si>
-  <si>
-    <t>9,602,737</t>
-  </si>
-  <si>
     <t>透過損益按公允價值衡量之金融資產－流動</t>
   </si>
   <si>
-    <t>113,040</t>
-  </si>
-  <si>
-    <t>310,095</t>
-  </si>
-  <si>
-    <t>262,276</t>
-  </si>
-  <si>
-    <t>297,195</t>
-  </si>
-  <si>
-    <t>306,245</t>
-  </si>
-  <si>
-    <t>497,422</t>
-  </si>
-  <si>
-    <t>438,765</t>
-  </si>
-  <si>
-    <t>341,893</t>
-  </si>
-  <si>
-    <t>318,265</t>
-  </si>
-  <si>
-    <t>279,440</t>
-  </si>
-  <si>
-    <t>250,015</t>
-  </si>
-  <si>
-    <t>285,221</t>
-  </si>
-  <si>
-    <t>286,319</t>
-  </si>
-  <si>
-    <t>281,698</t>
-  </si>
-  <si>
-    <t>248,303</t>
-  </si>
-  <si>
-    <t>201,129</t>
-  </si>
-  <si>
     <t>遞延所得稅負債</t>
   </si>
   <si>
-    <t>328,219</t>
-  </si>
-  <si>
-    <t>327,501</t>
-  </si>
-  <si>
-    <t>327,807</t>
-  </si>
-  <si>
-    <t>325,630</t>
-  </si>
-  <si>
-    <t>327,174</t>
-  </si>
-  <si>
-    <t>328,087</t>
-  </si>
-  <si>
-    <t>330,750</t>
-  </si>
-  <si>
-    <t>331,954</t>
-  </si>
-  <si>
-    <t>332,435</t>
-  </si>
-  <si>
-    <t>332,501</t>
-  </si>
-  <si>
-    <t>334,764</t>
-  </si>
-  <si>
-    <t>336,211</t>
-  </si>
-  <si>
-    <t>290,895</t>
-  </si>
-  <si>
-    <t>290,485</t>
-  </si>
-  <si>
-    <t>290,557</t>
-  </si>
-  <si>
-    <t>291,718</t>
-  </si>
-  <si>
     <t>遞延所得稅資產</t>
   </si>
   <si>
-    <t>9,692</t>
-  </si>
-  <si>
-    <t>20,532</t>
-  </si>
-  <si>
-    <t>24,558</t>
-  </si>
-  <si>
-    <t>44,318</t>
-  </si>
-  <si>
-    <t>52,391</t>
-  </si>
-  <si>
-    <t>53,210</t>
-  </si>
-  <si>
-    <t>52,112</t>
-  </si>
-  <si>
-    <t>69,339</t>
-  </si>
-  <si>
-    <t>74,367</t>
-  </si>
-  <si>
-    <t>74,230</t>
-  </si>
-  <si>
-    <t>73,389</t>
-  </si>
-  <si>
-    <t>75,554</t>
-  </si>
-  <si>
-    <t>72,521</t>
-  </si>
-  <si>
-    <t>73,755</t>
-  </si>
-  <si>
-    <t>76,621</t>
-  </si>
-  <si>
-    <t>77,484</t>
-  </si>
-  <si>
     <t>非控制權益</t>
   </si>
   <si>
-    <t>34,312</t>
-  </si>
-  <si>
-    <t>33,930</t>
-  </si>
-  <si>
-    <t>34,148</t>
-  </si>
-  <si>
-    <t>34,305</t>
-  </si>
-  <si>
-    <t>34,510</t>
-  </si>
-  <si>
-    <t>34,205</t>
-  </si>
-  <si>
-    <t>34,403</t>
-  </si>
-  <si>
-    <t>34,457</t>
-  </si>
-  <si>
-    <t>34,610</t>
-  </si>
-  <si>
-    <t>34,260</t>
-  </si>
-  <si>
-    <t>34,382</t>
-  </si>
-  <si>
-    <t>34,463</t>
-  </si>
-  <si>
-    <t>133,612</t>
-  </si>
-  <si>
-    <t>133,707</t>
-  </si>
-  <si>
-    <t>133,960</t>
-  </si>
-  <si>
-    <t>133,246</t>
-  </si>
-  <si>
     <t>非流動負債合計</t>
   </si>
   <si>
-    <t>483,459</t>
-  </si>
-  <si>
-    <t>471,538</t>
-  </si>
-  <si>
-    <t>455,925</t>
-  </si>
-  <si>
-    <t>443,665</t>
-  </si>
-  <si>
-    <t>445,162</t>
-  </si>
-  <si>
-    <t>445,567</t>
-  </si>
-  <si>
-    <t>447,946</t>
-  </si>
-  <si>
-    <t>448,910</t>
-  </si>
-  <si>
-    <t>449,739</t>
-  </si>
-  <si>
-    <t>349,485</t>
-  </si>
-  <si>
-    <t>352,135</t>
-  </si>
-  <si>
-    <t>354,277</t>
-  </si>
-  <si>
-    <t>320,232</t>
-  </si>
-  <si>
-    <t>319,719</t>
-  </si>
-  <si>
-    <t>316,172</t>
-  </si>
-  <si>
-    <t>315,443</t>
-  </si>
-  <si>
     <t>非流動資產合計</t>
   </si>
   <si>
-    <t>8,172,897</t>
-  </si>
-  <si>
-    <t>7,859,434</t>
-  </si>
-  <si>
-    <t>7,903,315</t>
-  </si>
-  <si>
-    <t>7,912,704</t>
-  </si>
-  <si>
-    <t>7,988,080</t>
-  </si>
-  <si>
-    <t>7,923,195</t>
-  </si>
-  <si>
-    <t>7,926,603</t>
-  </si>
-  <si>
-    <t>7,814,235</t>
-  </si>
-  <si>
-    <t>7,747,273</t>
-  </si>
-  <si>
-    <t>7,679,599</t>
-  </si>
-  <si>
-    <t>7,397,521</t>
-  </si>
-  <si>
-    <t>7,418,780</t>
-  </si>
-  <si>
-    <t>7,401,560</t>
-  </si>
-  <si>
-    <t>7,301,833</t>
-  </si>
-  <si>
-    <t>7,263,503</t>
-  </si>
-  <si>
-    <t>7,209,833</t>
-  </si>
-  <si>
     <t>預付款項</t>
-  </si>
-  <si>
-    <t>23,144</t>
-  </si>
-  <si>
-    <t>17,211</t>
-  </si>
-  <si>
-    <t>18,490</t>
-  </si>
-  <si>
-    <t>7,486</t>
-  </si>
-  <si>
-    <t>35,275</t>
-  </si>
-  <si>
-    <t>11,056</t>
-  </si>
-  <si>
-    <t>17,375</t>
-  </si>
-  <si>
-    <t>14,488</t>
-  </si>
-  <si>
-    <t>17,718</t>
-  </si>
-  <si>
-    <t>4,016</t>
-  </si>
-  <si>
-    <t>8,993</t>
-  </si>
-  <si>
-    <t>2,651</t>
-  </si>
-  <si>
-    <t>10,042</t>
-  </si>
-  <si>
-    <t>29,380</t>
-  </si>
-  <si>
-    <t>17,036</t>
-  </si>
-  <si>
-    <t>5,876</t>
   </si>
   <si>
     <t>預收股款（權益項下）之約當發行股數（單位：股）</t>
@@ -2596,98 +730,98 @@
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
+      <c r="B2" t="n">
+        <v>340998</v>
       </c>
       <c r="C2" t="n">
         <v>3.65</v>
       </c>
-      <c r="D2" t="s">
-        <v>34</v>
+      <c r="D2" t="n">
+        <v>339573</v>
       </c>
       <c r="E2" t="n">
         <v>3.63</v>
       </c>
-      <c r="F2" t="s">
-        <v>35</v>
+      <c r="F2" t="n">
+        <v>337482</v>
       </c>
       <c r="G2" t="n">
         <v>3.58</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
+      <c r="H2" t="n">
+        <v>337071</v>
       </c>
       <c r="I2" t="n">
         <v>3.55</v>
       </c>
-      <c r="J2" t="s">
-        <v>37</v>
+      <c r="J2" t="n">
+        <v>336900</v>
       </c>
       <c r="K2" t="n">
         <v>3.46</v>
       </c>
-      <c r="L2" t="s">
-        <v>38</v>
+      <c r="L2" t="n">
+        <v>339535</v>
       </c>
       <c r="M2" t="n">
         <v>3.49</v>
       </c>
-      <c r="N2" t="s">
-        <v>39</v>
+      <c r="N2" t="n">
+        <v>340533</v>
       </c>
       <c r="O2" t="n">
         <v>3.53</v>
       </c>
-      <c r="P2" t="s">
-        <v>40</v>
+      <c r="P2" t="n">
+        <v>337341</v>
       </c>
       <c r="Q2" t="n">
         <v>3.51</v>
       </c>
-      <c r="R2" t="s">
-        <v>41</v>
+      <c r="R2" t="n">
+        <v>338868</v>
       </c>
       <c r="S2" t="n">
         <v>3.51</v>
       </c>
-      <c r="T2" t="s">
-        <v>42</v>
+      <c r="T2" t="n">
+        <v>338844</v>
       </c>
       <c r="U2" t="n">
         <v>3.54</v>
       </c>
-      <c r="V2" t="s">
-        <v>43</v>
+      <c r="V2" t="n">
+        <v>342602</v>
       </c>
       <c r="W2" t="n">
         <v>3.71</v>
       </c>
-      <c r="X2" t="s">
-        <v>44</v>
+      <c r="X2" t="n">
+        <v>349465</v>
       </c>
       <c r="Y2" t="n">
         <v>3.72</v>
       </c>
-      <c r="Z2" t="s">
-        <v>45</v>
+      <c r="Z2" t="n">
+        <v>269053</v>
       </c>
       <c r="AA2" t="n">
         <v>2.84</v>
       </c>
-      <c r="AB2" t="s">
-        <v>46</v>
+      <c r="AB2" t="n">
+        <v>265161</v>
       </c>
       <c r="AC2" t="n">
         <v>2.79</v>
       </c>
-      <c r="AD2" t="s">
-        <v>47</v>
+      <c r="AD2" t="n">
+        <v>252394</v>
       </c>
       <c r="AE2" t="n">
         <v>2.7</v>
       </c>
-      <c r="AF2" t="s">
-        <v>48</v>
+      <c r="AF2" t="n">
+        <v>250890</v>
       </c>
       <c r="AG2" t="n">
         <v>2.72</v>
@@ -2695,100 +829,100 @@
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
+        <v>33</v>
+      </c>
+      <c r="B3" t="n">
+        <v>680380</v>
       </c>
       <c r="C3" t="n">
         <v>7.28</v>
       </c>
-      <c r="D3" t="s">
-        <v>51</v>
+      <c r="D3" t="n">
+        <v>469791</v>
       </c>
       <c r="E3" t="n">
         <v>5.02</v>
       </c>
-      <c r="F3" t="s">
-        <v>52</v>
+      <c r="F3" t="n">
+        <v>469479</v>
       </c>
       <c r="G3" t="n">
         <v>4.98</v>
       </c>
-      <c r="H3" t="s">
-        <v>53</v>
+      <c r="H3" t="n">
+        <v>475339</v>
       </c>
       <c r="I3" t="n">
         <v>5</v>
       </c>
-      <c r="J3" t="s">
-        <v>53</v>
+      <c r="J3" t="n">
+        <v>475339</v>
       </c>
       <c r="K3" t="n">
         <v>4.88</v>
       </c>
-      <c r="L3" t="s">
-        <v>54</v>
+      <c r="L3" t="n">
+        <v>511326</v>
       </c>
       <c r="M3" t="n">
         <v>5.26</v>
       </c>
-      <c r="N3" t="s">
-        <v>55</v>
+      <c r="N3" t="n">
+        <v>551326</v>
       </c>
       <c r="O3" t="n">
         <v>5.71</v>
       </c>
-      <c r="P3" t="s">
-        <v>56</v>
+      <c r="P3" t="n">
+        <v>546889</v>
       </c>
       <c r="Q3" t="n">
         <v>5.7</v>
       </c>
-      <c r="R3" t="s">
-        <v>56</v>
+      <c r="R3" t="n">
+        <v>546889</v>
       </c>
       <c r="S3" t="n">
         <v>5.67</v>
       </c>
-      <c r="T3" t="s">
-        <v>57</v>
+      <c r="T3" t="n">
+        <v>542489</v>
       </c>
       <c r="U3" t="n">
         <v>5.67</v>
       </c>
-      <c r="V3" t="s">
-        <v>58</v>
+      <c r="V3" t="n">
+        <v>539115</v>
       </c>
       <c r="W3" t="n">
         <v>5.84</v>
       </c>
-      <c r="X3" t="s">
-        <v>59</v>
+      <c r="X3" t="n">
+        <v>537364</v>
       </c>
       <c r="Y3" t="n">
         <v>5.73</v>
       </c>
-      <c r="Z3" t="s">
-        <v>60</v>
+      <c r="Z3" t="n">
+        <v>539276</v>
       </c>
       <c r="AA3" t="n">
         <v>5.68</v>
       </c>
-      <c r="AB3" t="s">
-        <v>61</v>
+      <c r="AB3" t="n">
+        <v>536636</v>
       </c>
       <c r="AC3" t="n">
         <v>5.65</v>
       </c>
-      <c r="AD3" t="s">
-        <v>62</v>
+      <c r="AD3" t="n">
+        <v>532993</v>
       </c>
       <c r="AE3" t="n">
         <v>5.71</v>
       </c>
-      <c r="AF3" t="s">
-        <v>63</v>
+      <c r="AF3" t="n">
+        <v>513828</v>
       </c>
       <c r="AG3" t="n">
         <v>5.58</v>
@@ -2796,100 +930,100 @@
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" t="s">
-        <v>65</v>
+        <v>34</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1927974</v>
       </c>
       <c r="C4" t="n">
         <v>20.62</v>
       </c>
-      <c r="D4" t="s">
-        <v>66</v>
+      <c r="D4" t="n">
+        <v>1887764</v>
       </c>
       <c r="E4" t="n">
         <v>20.17</v>
       </c>
-      <c r="F4" t="s">
-        <v>67</v>
+      <c r="F4" t="n">
+        <v>1996579</v>
       </c>
       <c r="G4" t="n">
         <v>21.16</v>
       </c>
-      <c r="H4" t="s">
-        <v>68</v>
+      <c r="H4" t="n">
+        <v>1956322</v>
       </c>
       <c r="I4" t="n">
         <v>20.6</v>
       </c>
-      <c r="J4" t="s">
-        <v>69</v>
+      <c r="J4" t="n">
+        <v>2024289</v>
       </c>
       <c r="K4" t="n">
         <v>20.8</v>
       </c>
-      <c r="L4" t="s">
-        <v>70</v>
+      <c r="L4" t="n">
+        <v>1946398</v>
       </c>
       <c r="M4" t="n">
         <v>20.01</v>
       </c>
-      <c r="N4" t="s">
-        <v>71</v>
+      <c r="N4" t="n">
+        <v>2009648</v>
       </c>
       <c r="O4" t="n">
         <v>20.83</v>
       </c>
-      <c r="P4" t="s">
-        <v>72</v>
+      <c r="P4" t="n">
+        <v>1983703</v>
       </c>
       <c r="Q4" t="n">
         <v>20.66</v>
       </c>
-      <c r="R4" t="s">
-        <v>73</v>
+      <c r="R4" t="n">
+        <v>2019536</v>
       </c>
       <c r="S4" t="n">
         <v>20.93</v>
       </c>
-      <c r="T4" t="s">
-        <v>74</v>
+      <c r="T4" t="n">
+        <v>1929932</v>
       </c>
       <c r="U4" t="n">
         <v>20.17</v>
       </c>
-      <c r="V4" t="s">
-        <v>75</v>
+      <c r="V4" t="n">
+        <v>1991201</v>
       </c>
       <c r="W4" t="n">
         <v>21.57</v>
       </c>
-      <c r="X4" t="s">
-        <v>76</v>
+      <c r="X4" t="n">
+        <v>2013075</v>
       </c>
       <c r="Y4" t="n">
         <v>21.46</v>
       </c>
-      <c r="Z4" t="s">
-        <v>77</v>
+      <c r="Z4" t="n">
+        <v>2130538</v>
       </c>
       <c r="AA4" t="n">
         <v>22.45</v>
       </c>
-      <c r="AB4" t="s">
-        <v>78</v>
+      <c r="AB4" t="n">
+        <v>2034346</v>
       </c>
       <c r="AC4" t="n">
         <v>21.42</v>
       </c>
-      <c r="AD4" t="s">
-        <v>79</v>
+      <c r="AD4" t="n">
+        <v>2025366</v>
       </c>
       <c r="AE4" t="n">
         <v>21.68</v>
       </c>
-      <c r="AF4" t="s">
-        <v>80</v>
+      <c r="AF4" t="n">
+        <v>2007235</v>
       </c>
       <c r="AG4" t="n">
         <v>21.8</v>
@@ -2897,100 +1031,100 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" t="s">
-        <v>82</v>
+        <v>35</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1040647</v>
       </c>
       <c r="C5" t="n">
         <v>11.13</v>
       </c>
-      <c r="D5" t="s">
-        <v>83</v>
+      <c r="D5" t="n">
+        <v>989623</v>
       </c>
       <c r="E5" t="n">
         <v>10.57</v>
       </c>
-      <c r="F5" t="s">
-        <v>84</v>
+      <c r="F5" t="n">
+        <v>1038537</v>
       </c>
       <c r="G5" t="n">
         <v>11.01</v>
       </c>
-      <c r="H5" t="s">
-        <v>85</v>
+      <c r="H5" t="n">
+        <v>1131535</v>
       </c>
       <c r="I5" t="n">
         <v>11.91</v>
       </c>
-      <c r="J5" t="s">
-        <v>86</v>
+      <c r="J5" t="n">
+        <v>1208285</v>
       </c>
       <c r="K5" t="n">
         <v>12.42</v>
       </c>
-      <c r="L5" t="s">
-        <v>87</v>
+      <c r="L5" t="n">
+        <v>1289977</v>
       </c>
       <c r="M5" t="n">
         <v>13.26</v>
       </c>
-      <c r="N5" t="s">
-        <v>88</v>
+      <c r="N5" t="n">
+        <v>1258141</v>
       </c>
       <c r="O5" t="n">
         <v>13.04</v>
       </c>
-      <c r="P5" t="s">
-        <v>89</v>
+      <c r="P5" t="n">
+        <v>1243482</v>
       </c>
       <c r="Q5" t="n">
         <v>12.95</v>
       </c>
-      <c r="R5" t="s">
-        <v>90</v>
+      <c r="R5" t="n">
+        <v>1303187</v>
       </c>
       <c r="S5" t="n">
         <v>13.5</v>
       </c>
-      <c r="T5" t="s">
-        <v>91</v>
+      <c r="T5" t="n">
+        <v>1252050</v>
       </c>
       <c r="U5" t="n">
         <v>13.08</v>
       </c>
-      <c r="V5" t="s">
-        <v>92</v>
+      <c r="V5" t="n">
+        <v>979838</v>
       </c>
       <c r="W5" t="n">
         <v>10.61</v>
       </c>
-      <c r="X5" t="s">
-        <v>93</v>
+      <c r="X5" t="n">
+        <v>999674</v>
       </c>
       <c r="Y5" t="n">
         <v>10.65</v>
       </c>
-      <c r="Z5" t="s">
-        <v>94</v>
+      <c r="Z5" t="n">
+        <v>1053705</v>
       </c>
       <c r="AA5" t="n">
         <v>11.1</v>
       </c>
-      <c r="AB5" t="s">
-        <v>95</v>
+      <c r="AB5" t="n">
+        <v>972589</v>
       </c>
       <c r="AC5" t="n">
         <v>10.24</v>
       </c>
-      <c r="AD5" t="s">
-        <v>96</v>
+      <c r="AD5" t="n">
+        <v>945443</v>
       </c>
       <c r="AE5" t="n">
         <v>10.12</v>
       </c>
-      <c r="AF5" t="s">
-        <v>97</v>
+      <c r="AF5" t="n">
+        <v>909763</v>
       </c>
       <c r="AG5" t="n">
         <v>9.880000000000001</v>
@@ -2998,100 +1132,100 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" t="s">
-        <v>99</v>
+        <v>36</v>
+      </c>
+      <c r="B6" t="n">
+        <v>90821</v>
       </c>
       <c r="C6" t="n">
         <v>0.97</v>
       </c>
-      <c r="D6" t="s">
-        <v>100</v>
+      <c r="D6" t="n">
+        <v>152641</v>
       </c>
       <c r="E6" t="n">
         <v>1.63</v>
       </c>
-      <c r="F6" t="s">
-        <v>101</v>
+      <c r="F6" t="n">
+        <v>91653</v>
       </c>
       <c r="G6" t="n">
         <v>0.97</v>
       </c>
-      <c r="H6" t="s">
-        <v>102</v>
+      <c r="H6" t="n">
+        <v>120183</v>
       </c>
       <c r="I6" t="n">
         <v>1.27</v>
       </c>
-      <c r="J6" t="s">
-        <v>103</v>
+      <c r="J6" t="n">
+        <v>96868</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
       </c>
-      <c r="L6" t="s">
-        <v>104</v>
+      <c r="L6" t="n">
+        <v>220987</v>
       </c>
       <c r="M6" t="n">
         <v>2.27</v>
       </c>
-      <c r="N6" t="s">
-        <v>105</v>
+      <c r="N6" t="n">
+        <v>110722</v>
       </c>
       <c r="O6" t="n">
         <v>1.15</v>
       </c>
-      <c r="P6" t="s">
-        <v>106</v>
+      <c r="P6" t="n">
+        <v>114934</v>
       </c>
       <c r="Q6" t="n">
         <v>1.2</v>
       </c>
-      <c r="R6" t="s">
-        <v>107</v>
+      <c r="R6" t="n">
+        <v>83223</v>
       </c>
       <c r="S6" t="n">
         <v>0.86</v>
       </c>
-      <c r="T6" t="s">
-        <v>108</v>
+      <c r="T6" t="n">
+        <v>199065</v>
       </c>
       <c r="U6" t="n">
         <v>2.08</v>
       </c>
-      <c r="V6" t="s">
-        <v>109</v>
+      <c r="V6" t="n">
+        <v>132271</v>
       </c>
       <c r="W6" t="n">
         <v>1.43</v>
       </c>
-      <c r="X6" t="s">
-        <v>110</v>
+      <c r="X6" t="n">
+        <v>189185</v>
       </c>
       <c r="Y6" t="n">
         <v>2.02</v>
       </c>
-      <c r="Z6" t="s">
-        <v>111</v>
+      <c r="Z6" t="n">
+        <v>113798</v>
       </c>
       <c r="AA6" t="n">
         <v>1.2</v>
       </c>
-      <c r="AB6" t="s">
-        <v>112</v>
+      <c r="AB6" t="n">
+        <v>182552</v>
       </c>
       <c r="AC6" t="n">
         <v>1.92</v>
       </c>
-      <c r="AD6" t="s">
-        <v>113</v>
+      <c r="AD6" t="n">
+        <v>70153</v>
       </c>
       <c r="AE6" t="n">
         <v>0.75</v>
       </c>
-      <c r="AF6" t="s">
-        <v>114</v>
+      <c r="AF6" t="n">
+        <v>74258</v>
       </c>
       <c r="AG6" t="n">
         <v>0.8100000000000001</v>
@@ -3099,100 +1233,100 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" t="s">
-        <v>116</v>
+        <v>37</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10886</v>
       </c>
       <c r="C7" t="n">
         <v>0.12</v>
       </c>
-      <c r="D7" t="s">
-        <v>117</v>
+      <c r="D7" t="n">
+        <v>4224</v>
       </c>
       <c r="E7" t="n">
         <v>0.05</v>
       </c>
-      <c r="F7" t="s">
-        <v>118</v>
+      <c r="F7" t="n">
+        <v>1113</v>
       </c>
       <c r="G7" t="n">
         <v>0.01</v>
       </c>
-      <c r="H7" t="s">
-        <v>119</v>
+      <c r="H7" t="n">
+        <v>1342</v>
       </c>
       <c r="I7" t="n">
         <v>0.01</v>
       </c>
-      <c r="J7" t="s">
-        <v>120</v>
+      <c r="J7" t="n">
+        <v>346</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
-      <c r="L7" t="s">
-        <v>121</v>
+      <c r="L7" t="n">
+        <v>5030</v>
       </c>
       <c r="M7" t="n">
         <v>0.05</v>
       </c>
-      <c r="N7" t="s">
-        <v>122</v>
+      <c r="N7" t="n">
+        <v>292</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
-      <c r="P7" t="s">
-        <v>123</v>
+      <c r="P7" t="n">
+        <v>12373</v>
       </c>
       <c r="Q7" t="n">
         <v>0.13</v>
       </c>
-      <c r="R7" t="s">
-        <v>124</v>
+      <c r="R7" t="n">
+        <v>86496</v>
       </c>
       <c r="S7" t="n">
         <v>0.9</v>
       </c>
-      <c r="T7" t="s">
-        <v>125</v>
+      <c r="T7" t="n">
+        <v>26566</v>
       </c>
       <c r="U7" t="n">
         <v>0.28</v>
       </c>
-      <c r="V7" t="s">
-        <v>126</v>
+      <c r="V7" t="n">
+        <v>8242</v>
       </c>
       <c r="W7" t="n">
         <v>0.09</v>
       </c>
-      <c r="X7" t="s">
-        <v>127</v>
+      <c r="X7" t="n">
+        <v>508</v>
       </c>
       <c r="Y7" t="n">
         <v>0.01</v>
       </c>
-      <c r="Z7" t="s">
-        <v>128</v>
+      <c r="Z7" t="n">
+        <v>3114</v>
       </c>
       <c r="AA7" t="n">
         <v>0.03</v>
       </c>
-      <c r="AB7" t="s">
-        <v>129</v>
+      <c r="AB7" t="n">
+        <v>1892</v>
       </c>
       <c r="AC7" t="n">
         <v>0.02</v>
       </c>
-      <c r="AD7" t="s">
-        <v>130</v>
+      <c r="AD7" t="n">
+        <v>1553</v>
       </c>
       <c r="AE7" t="n">
         <v>0.02</v>
       </c>
-      <c r="AF7" t="s">
-        <v>131</v>
+      <c r="AF7" t="n">
+        <v>9989</v>
       </c>
       <c r="AG7" t="n">
         <v>0.11</v>
@@ -3200,7 +1334,7 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="1" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s"/>
       <c r="C8" t="s"/>
@@ -3224,32 +1358,32 @@
       <c r="U8" t="s"/>
       <c r="V8" t="s"/>
       <c r="W8" t="s"/>
-      <c r="X8" t="s">
-        <v>133</v>
+      <c r="X8" t="n">
+        <v>22402</v>
       </c>
       <c r="Y8" t="n">
         <v>0.24</v>
       </c>
-      <c r="Z8" t="s">
-        <v>133</v>
+      <c r="Z8" t="n">
+        <v>22402</v>
       </c>
       <c r="AA8" t="n">
         <v>0.24</v>
       </c>
-      <c r="AB8" t="s">
-        <v>134</v>
+      <c r="AB8" t="n">
+        <v>6643</v>
       </c>
       <c r="AC8" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="AD8" t="s">
-        <v>135</v>
+      <c r="AD8" t="n">
+        <v>1802</v>
       </c>
       <c r="AE8" t="n">
         <v>0.02</v>
       </c>
-      <c r="AF8" t="s">
-        <v>135</v>
+      <c r="AF8" t="n">
+        <v>1802</v>
       </c>
       <c r="AG8" t="n">
         <v>0.02</v>
@@ -3257,100 +1391,100 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" t="s">
-        <v>137</v>
+        <v>39</v>
+      </c>
+      <c r="B9" t="n">
+        <v>736976</v>
       </c>
       <c r="C9" t="n">
         <v>7.88</v>
       </c>
-      <c r="D9" t="s">
-        <v>138</v>
+      <c r="D9" t="n">
+        <v>691152</v>
       </c>
       <c r="E9" t="n">
         <v>7.39</v>
       </c>
-      <c r="F9" t="s">
-        <v>139</v>
+      <c r="F9" t="n">
+        <v>745815</v>
       </c>
       <c r="G9" t="n">
         <v>7.91</v>
       </c>
-      <c r="H9" t="s">
-        <v>140</v>
+      <c r="H9" t="n">
+        <v>831642</v>
       </c>
       <c r="I9" t="n">
         <v>8.76</v>
       </c>
-      <c r="J9" t="s">
-        <v>141</v>
+      <c r="J9" t="n">
+        <v>915192</v>
       </c>
       <c r="K9" t="n">
         <v>9.4</v>
       </c>
-      <c r="L9" t="s">
-        <v>142</v>
+      <c r="L9" t="n">
+        <v>996470</v>
       </c>
       <c r="M9" t="n">
         <v>10.24</v>
       </c>
-      <c r="N9" t="s">
-        <v>143</v>
+      <c r="N9" t="n">
+        <v>964883</v>
       </c>
       <c r="O9" t="n">
         <v>10</v>
       </c>
-      <c r="P9" t="s">
-        <v>144</v>
+      <c r="P9" t="n">
+        <v>948426</v>
       </c>
       <c r="Q9" t="n">
         <v>9.880000000000001</v>
       </c>
-      <c r="R9" t="s">
-        <v>145</v>
+      <c r="R9" t="n">
+        <v>1008307</v>
       </c>
       <c r="S9" t="n">
         <v>10.45</v>
       </c>
-      <c r="T9" t="s">
-        <v>146</v>
+      <c r="T9" t="n">
+        <v>956655</v>
       </c>
       <c r="U9" t="n">
         <v>10</v>
       </c>
-      <c r="V9" t="s">
-        <v>147</v>
+      <c r="V9" t="n">
+        <v>678882</v>
       </c>
       <c r="W9" t="n">
         <v>7.35</v>
       </c>
-      <c r="X9" t="s">
-        <v>148</v>
+      <c r="X9" t="n">
+        <v>699498</v>
       </c>
       <c r="Y9" t="n">
         <v>7.46</v>
       </c>
-      <c r="Z9" t="s">
-        <v>149</v>
+      <c r="Z9" t="n">
+        <v>759833</v>
       </c>
       <c r="AA9" t="n">
         <v>8.01</v>
       </c>
-      <c r="AB9" t="s">
-        <v>150</v>
+      <c r="AB9" t="n">
+        <v>671818</v>
       </c>
       <c r="AC9" t="n">
         <v>7.07</v>
       </c>
-      <c r="AD9" t="s">
-        <v>151</v>
+      <c r="AD9" t="n">
+        <v>649723</v>
       </c>
       <c r="AE9" t="n">
         <v>6.95</v>
       </c>
-      <c r="AF9" t="s">
-        <v>152</v>
+      <c r="AF9" t="n">
+        <v>607502</v>
       </c>
       <c r="AG9" t="n">
         <v>6.6</v>
@@ -3358,100 +1492,100 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10" t="s">
-        <v>154</v>
+        <v>40</v>
+      </c>
+      <c r="B10" t="n">
+        <v>111537</v>
       </c>
       <c r="C10" t="n">
         <v>1.19</v>
       </c>
-      <c r="D10" t="s">
-        <v>155</v>
+      <c r="D10" t="n">
+        <v>159417</v>
       </c>
       <c r="E10" t="n">
         <v>1.7</v>
       </c>
-      <c r="F10" t="s">
-        <v>156</v>
+      <c r="F10" t="n">
+        <v>137277</v>
       </c>
       <c r="G10" t="n">
         <v>1.46</v>
       </c>
-      <c r="H10" t="s">
-        <v>157</v>
+      <c r="H10" t="n">
+        <v>145641</v>
       </c>
       <c r="I10" t="n">
         <v>1.53</v>
       </c>
-      <c r="J10" t="s">
-        <v>158</v>
+      <c r="J10" t="n">
+        <v>141058</v>
       </c>
       <c r="K10" t="n">
         <v>1.45</v>
       </c>
-      <c r="L10" t="s">
-        <v>159</v>
+      <c r="L10" t="n">
+        <v>125019</v>
       </c>
       <c r="M10" t="n">
         <v>1.29</v>
       </c>
-      <c r="N10" t="s">
-        <v>160</v>
+      <c r="N10" t="n">
+        <v>90600</v>
       </c>
       <c r="O10" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="P10" t="s">
-        <v>161</v>
+      <c r="P10" t="n">
+        <v>105320</v>
       </c>
       <c r="Q10" t="n">
         <v>1.1</v>
       </c>
-      <c r="R10" t="s">
-        <v>162</v>
+      <c r="R10" t="n">
+        <v>67885</v>
       </c>
       <c r="S10" t="n">
         <v>0.7</v>
       </c>
-      <c r="T10" t="s">
-        <v>163</v>
+      <c r="T10" t="n">
+        <v>80939</v>
       </c>
       <c r="U10" t="n">
         <v>0.85</v>
       </c>
-      <c r="V10" t="s">
-        <v>164</v>
+      <c r="V10" t="n">
+        <v>68918</v>
       </c>
       <c r="W10" t="n">
         <v>0.75</v>
       </c>
-      <c r="X10" t="s">
-        <v>165</v>
+      <c r="X10" t="n">
+        <v>119528</v>
       </c>
       <c r="Y10" t="n">
         <v>1.27</v>
       </c>
-      <c r="Z10" t="s">
-        <v>166</v>
+      <c r="Z10" t="n">
+        <v>66240</v>
       </c>
       <c r="AA10" t="n">
         <v>0.7</v>
       </c>
-      <c r="AB10" t="s">
-        <v>167</v>
+      <c r="AB10" t="n">
+        <v>91059</v>
       </c>
       <c r="AC10" t="n">
         <v>0.96</v>
       </c>
-      <c r="AD10" t="s">
-        <v>168</v>
+      <c r="AD10" t="n">
+        <v>61377</v>
       </c>
       <c r="AE10" t="n">
         <v>0.66</v>
       </c>
-      <c r="AF10" t="s">
-        <v>169</v>
+      <c r="AF10" t="n">
+        <v>20101</v>
       </c>
       <c r="AG10" t="n">
         <v>0.22</v>
@@ -3459,100 +1593,100 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B11" t="s">
-        <v>171</v>
+        <v>41</v>
+      </c>
+      <c r="B11" t="n">
+        <v>168340</v>
       </c>
       <c r="C11" t="n">
         <v>1.8</v>
       </c>
-      <c r="D11" t="s">
-        <v>172</v>
+      <c r="D11" t="n">
+        <v>168498</v>
       </c>
       <c r="E11" t="n">
         <v>1.8</v>
       </c>
-      <c r="F11" t="s">
-        <v>173</v>
+      <c r="F11" t="n">
+        <v>239593</v>
       </c>
       <c r="G11" t="n">
         <v>2.54</v>
       </c>
-      <c r="H11" t="s">
-        <v>174</v>
+      <c r="H11" t="n">
+        <v>229243</v>
       </c>
       <c r="I11" t="n">
         <v>2.41</v>
       </c>
-      <c r="J11" t="s">
-        <v>175</v>
+      <c r="J11" t="n">
+        <v>209095</v>
       </c>
       <c r="K11" t="n">
         <v>2.15</v>
       </c>
-      <c r="L11" t="s">
-        <v>176</v>
+      <c r="L11" t="n">
+        <v>209152</v>
       </c>
       <c r="M11" t="n">
         <v>2.15</v>
       </c>
-      <c r="N11" t="s">
-        <v>177</v>
+      <c r="N11" t="n">
+        <v>194793</v>
       </c>
       <c r="O11" t="n">
         <v>2.02</v>
       </c>
-      <c r="P11" t="s">
-        <v>178</v>
+      <c r="P11" t="n">
+        <v>211411</v>
       </c>
       <c r="Q11" t="n">
         <v>2.2</v>
       </c>
-      <c r="R11" t="s">
-        <v>179</v>
+      <c r="R11" t="n">
+        <v>229562</v>
       </c>
       <c r="S11" t="n">
         <v>2.38</v>
       </c>
-      <c r="T11" t="s">
-        <v>180</v>
+      <c r="T11" t="n">
+        <v>170680</v>
       </c>
       <c r="U11" t="n">
         <v>1.78</v>
       </c>
-      <c r="V11" t="s">
-        <v>181</v>
+      <c r="V11" t="n">
+        <v>185540</v>
       </c>
       <c r="W11" t="n">
         <v>2.01</v>
       </c>
-      <c r="X11" t="s">
-        <v>182</v>
+      <c r="X11" t="n">
+        <v>173680</v>
       </c>
       <c r="Y11" t="n">
         <v>1.85</v>
       </c>
-      <c r="Z11" t="s">
-        <v>183</v>
+      <c r="Z11" t="n">
+        <v>261467</v>
       </c>
       <c r="AA11" t="n">
         <v>2.76</v>
       </c>
-      <c r="AB11" t="s">
-        <v>184</v>
+      <c r="AB11" t="n">
+        <v>532028</v>
       </c>
       <c r="AC11" t="n">
         <v>5.6</v>
       </c>
-      <c r="AD11" t="s">
-        <v>185</v>
+      <c r="AD11" t="n">
+        <v>486126</v>
       </c>
       <c r="AE11" t="n">
         <v>5.2</v>
       </c>
-      <c r="AF11" t="s">
-        <v>186</v>
+      <c r="AF11" t="n">
+        <v>449758</v>
       </c>
       <c r="AG11" t="n">
         <v>4.88</v>
@@ -3560,100 +1694,100 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B12" t="s">
-        <v>188</v>
+        <v>42</v>
+      </c>
+      <c r="B12" t="n">
+        <v>155240</v>
       </c>
       <c r="C12" t="n">
         <v>1.66</v>
       </c>
-      <c r="D12" t="s">
-        <v>189</v>
+      <c r="D12" t="n">
+        <v>144037</v>
       </c>
       <c r="E12" t="n">
         <v>1.54</v>
       </c>
-      <c r="F12" t="s">
-        <v>190</v>
+      <c r="F12" t="n">
+        <v>128118</v>
       </c>
       <c r="G12" t="n">
         <v>1.36</v>
       </c>
-      <c r="H12" t="s">
-        <v>191</v>
+      <c r="H12" t="n">
+        <v>118035</v>
       </c>
       <c r="I12" t="n">
         <v>1.24</v>
       </c>
-      <c r="J12" t="s">
-        <v>192</v>
+      <c r="J12" t="n">
+        <v>117988</v>
       </c>
       <c r="K12" t="n">
         <v>1.21</v>
       </c>
-      <c r="L12" t="s">
-        <v>193</v>
+      <c r="L12" t="n">
+        <v>117480</v>
       </c>
       <c r="M12" t="n">
         <v>1.21</v>
       </c>
-      <c r="N12" t="s">
-        <v>194</v>
+      <c r="N12" t="n">
+        <v>117196</v>
       </c>
       <c r="O12" t="n">
         <v>1.21</v>
       </c>
-      <c r="P12" t="s">
-        <v>195</v>
+      <c r="P12" t="n">
+        <v>116956</v>
       </c>
       <c r="Q12" t="n">
         <v>1.22</v>
       </c>
-      <c r="R12" t="s">
-        <v>196</v>
+      <c r="R12" t="n">
+        <v>117304</v>
       </c>
       <c r="S12" t="n">
         <v>1.22</v>
       </c>
-      <c r="T12" t="s">
-        <v>197</v>
+      <c r="T12" t="n">
+        <v>16984</v>
       </c>
       <c r="U12" t="n">
         <v>0.18</v>
       </c>
-      <c r="V12" t="s">
-        <v>198</v>
+      <c r="V12" t="n">
+        <v>17371</v>
       </c>
       <c r="W12" t="n">
         <v>0.19</v>
       </c>
-      <c r="X12" t="s">
-        <v>199</v>
+      <c r="X12" t="n">
+        <v>18066</v>
       </c>
       <c r="Y12" t="n">
         <v>0.19</v>
       </c>
-      <c r="Z12" t="s">
-        <v>200</v>
+      <c r="Z12" t="n">
+        <v>29337</v>
       </c>
       <c r="AA12" t="n">
         <v>0.31</v>
       </c>
-      <c r="AB12" t="s">
-        <v>201</v>
+      <c r="AB12" t="n">
+        <v>29234</v>
       </c>
       <c r="AC12" t="n">
         <v>0.31</v>
       </c>
-      <c r="AD12" t="s">
-        <v>202</v>
+      <c r="AD12" t="n">
+        <v>25615</v>
       </c>
       <c r="AE12" t="n">
         <v>0.27</v>
       </c>
-      <c r="AF12" t="s">
-        <v>203</v>
+      <c r="AF12" t="n">
+        <v>23725</v>
       </c>
       <c r="AG12" t="n">
         <v>0.26</v>
@@ -3661,100 +1795,100 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B13" t="s">
-        <v>205</v>
+        <v>43</v>
+      </c>
+      <c r="B13" t="n">
+        <v>239145</v>
       </c>
       <c r="C13" t="n">
         <v>2.56</v>
       </c>
-      <c r="D13" t="s">
-        <v>206</v>
+      <c r="D13" t="n">
+        <v>36115</v>
       </c>
       <c r="E13" t="n">
         <v>0.39</v>
       </c>
-      <c r="F13" t="s">
-        <v>207</v>
+      <c r="F13" t="n">
+        <v>35915</v>
       </c>
       <c r="G13" t="n">
         <v>0.38</v>
       </c>
-      <c r="H13" t="s">
-        <v>208</v>
+      <c r="H13" t="n">
+        <v>35848</v>
       </c>
       <c r="I13" t="n">
         <v>0.38</v>
       </c>
-      <c r="J13" t="s">
-        <v>209</v>
+      <c r="J13" t="n">
+        <v>34998</v>
       </c>
       <c r="K13" t="n">
         <v>0.36</v>
       </c>
-      <c r="L13" t="s">
-        <v>210</v>
+      <c r="L13" t="n">
+        <v>34798</v>
       </c>
       <c r="M13" t="n">
         <v>0.36</v>
       </c>
-      <c r="N13" t="s">
-        <v>211</v>
+      <c r="N13" t="n">
+        <v>34648</v>
       </c>
       <c r="O13" t="n">
         <v>0.36</v>
       </c>
-      <c r="P13" t="s">
-        <v>212</v>
+      <c r="P13" t="n">
+        <v>33053</v>
       </c>
       <c r="Q13" t="n">
         <v>0.34</v>
       </c>
-      <c r="R13" t="s">
-        <v>212</v>
+      <c r="R13" t="n">
+        <v>33053</v>
       </c>
       <c r="S13" t="n">
         <v>0.34</v>
       </c>
-      <c r="T13" t="s">
-        <v>212</v>
+      <c r="T13" t="n">
+        <v>33053</v>
       </c>
       <c r="U13" t="n">
         <v>0.35</v>
       </c>
-      <c r="V13" t="s">
-        <v>213</v>
+      <c r="V13" t="n">
+        <v>33024</v>
       </c>
       <c r="W13" t="n">
         <v>0.36</v>
       </c>
-      <c r="X13" t="s">
-        <v>214</v>
+      <c r="X13" t="n">
+        <v>33025</v>
       </c>
       <c r="Y13" t="n">
         <v>0.35</v>
       </c>
-      <c r="Z13" t="s">
-        <v>215</v>
+      <c r="Z13" t="n">
+        <v>32808</v>
       </c>
       <c r="AA13" t="n">
         <v>0.35</v>
       </c>
-      <c r="AB13" t="s">
-        <v>216</v>
+      <c r="AB13" t="n">
+        <v>32478</v>
       </c>
       <c r="AC13" t="n">
         <v>0.34</v>
       </c>
-      <c r="AD13" t="s">
-        <v>217</v>
+      <c r="AD13" t="n">
+        <v>33226</v>
       </c>
       <c r="AE13" t="n">
         <v>0.36</v>
       </c>
-      <c r="AF13" t="s">
-        <v>218</v>
+      <c r="AF13" t="n">
+        <v>32792</v>
       </c>
       <c r="AG13" t="n">
         <v>0.36</v>
@@ -3762,100 +1896,100 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B14" t="s">
-        <v>220</v>
+        <v>44</v>
+      </c>
+      <c r="B14" t="n">
+        <v>384335</v>
       </c>
       <c r="C14" t="n">
         <v>4.11</v>
       </c>
-      <c r="D14" t="s">
-        <v>221</v>
+      <c r="D14" t="n">
+        <v>419563</v>
       </c>
       <c r="E14" t="n">
         <v>4.48</v>
       </c>
-      <c r="F14" t="s">
-        <v>222</v>
+      <c r="F14" t="n">
+        <v>396626</v>
       </c>
       <c r="G14" t="n">
         <v>4.2</v>
       </c>
-      <c r="H14" t="s">
-        <v>223</v>
+      <c r="H14" t="n">
+        <v>383651</v>
       </c>
       <c r="I14" t="n">
         <v>4.04</v>
       </c>
-      <c r="J14" t="s">
-        <v>224</v>
+      <c r="J14" t="n">
+        <v>474491</v>
       </c>
       <c r="K14" t="n">
         <v>4.88</v>
       </c>
-      <c r="L14" t="s">
-        <v>225</v>
+      <c r="L14" t="n">
+        <v>437011</v>
       </c>
       <c r="M14" t="n">
         <v>4.49</v>
       </c>
-      <c r="N14" t="s">
-        <v>226</v>
+      <c r="N14" t="n">
+        <v>404753</v>
       </c>
       <c r="O14" t="n">
         <v>4.2</v>
       </c>
-      <c r="P14" t="s">
-        <v>227</v>
+      <c r="P14" t="n">
+        <v>428468</v>
       </c>
       <c r="Q14" t="n">
         <v>4.46</v>
       </c>
-      <c r="R14" t="s">
-        <v>228</v>
+      <c r="R14" t="n">
+        <v>483444</v>
       </c>
       <c r="S14" t="n">
         <v>5.01</v>
       </c>
-      <c r="T14" t="s">
-        <v>229</v>
+      <c r="T14" t="n">
+        <v>620851</v>
       </c>
       <c r="U14" t="n">
         <v>6.49</v>
       </c>
-      <c r="V14" t="s">
-        <v>230</v>
+      <c r="V14" t="n">
+        <v>542745</v>
       </c>
       <c r="W14" t="n">
         <v>5.88</v>
       </c>
-      <c r="X14" t="s">
-        <v>231</v>
+      <c r="X14" t="n">
+        <v>553881</v>
       </c>
       <c r="Y14" t="n">
         <v>5.9</v>
       </c>
-      <c r="Z14" t="s">
-        <v>232</v>
+      <c r="Z14" t="n">
+        <v>548952</v>
       </c>
       <c r="AA14" t="n">
         <v>5.78</v>
       </c>
-      <c r="AB14" t="s">
-        <v>233</v>
+      <c r="AB14" t="n">
+        <v>600697</v>
       </c>
       <c r="AC14" t="n">
         <v>6.32</v>
       </c>
-      <c r="AD14" t="s">
-        <v>234</v>
+      <c r="AD14" t="n">
+        <v>638178</v>
       </c>
       <c r="AE14" t="n">
         <v>6.83</v>
       </c>
-      <c r="AF14" t="s">
-        <v>235</v>
+      <c r="AF14" t="n">
+        <v>587394</v>
       </c>
       <c r="AG14" t="n">
         <v>6.38</v>
@@ -3863,100 +1997,100 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B15" t="s">
-        <v>237</v>
+        <v>45</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-12185</v>
       </c>
       <c r="C15" t="n">
         <v>-0.13</v>
       </c>
-      <c r="D15" t="s">
-        <v>237</v>
+      <c r="D15" t="n">
+        <v>-12185</v>
       </c>
       <c r="E15" t="n">
         <v>-0.13</v>
       </c>
-      <c r="F15" t="s">
-        <v>237</v>
+      <c r="F15" t="n">
+        <v>-12185</v>
       </c>
       <c r="G15" t="n">
         <v>-0.13</v>
       </c>
-      <c r="H15" t="s">
-        <v>237</v>
+      <c r="H15" t="n">
+        <v>-12185</v>
       </c>
       <c r="I15" t="n">
         <v>-0.13</v>
       </c>
-      <c r="J15" t="s">
-        <v>237</v>
+      <c r="J15" t="n">
+        <v>-12185</v>
       </c>
       <c r="K15" t="n">
         <v>-0.13</v>
       </c>
-      <c r="L15" t="s">
-        <v>237</v>
+      <c r="L15" t="n">
+        <v>-12185</v>
       </c>
       <c r="M15" t="n">
         <v>-0.13</v>
       </c>
-      <c r="N15" t="s">
-        <v>237</v>
+      <c r="N15" t="n">
+        <v>-12185</v>
       </c>
       <c r="O15" t="n">
         <v>-0.13</v>
       </c>
-      <c r="P15" t="s">
-        <v>237</v>
+      <c r="P15" t="n">
+        <v>-12185</v>
       </c>
       <c r="Q15" t="n">
         <v>-0.13</v>
       </c>
-      <c r="R15" t="s">
-        <v>237</v>
+      <c r="R15" t="n">
+        <v>-12185</v>
       </c>
       <c r="S15" t="n">
         <v>-0.13</v>
       </c>
-      <c r="T15" t="s">
-        <v>237</v>
+      <c r="T15" t="n">
+        <v>-12185</v>
       </c>
       <c r="U15" t="n">
         <v>-0.13</v>
       </c>
-      <c r="V15" t="s">
-        <v>237</v>
+      <c r="V15" t="n">
+        <v>-12185</v>
       </c>
       <c r="W15" t="n">
         <v>-0.13</v>
       </c>
-      <c r="X15" t="s">
-        <v>237</v>
+      <c r="X15" t="n">
+        <v>-12185</v>
       </c>
       <c r="Y15" t="n">
         <v>-0.13</v>
       </c>
-      <c r="Z15" t="s">
-        <v>237</v>
+      <c r="Z15" t="n">
+        <v>-12185</v>
       </c>
       <c r="AA15" t="n">
         <v>-0.13</v>
       </c>
-      <c r="AB15" t="s">
-        <v>237</v>
+      <c r="AB15" t="n">
+        <v>-12185</v>
       </c>
       <c r="AC15" t="n">
         <v>-0.13</v>
       </c>
-      <c r="AD15" t="s">
-        <v>237</v>
+      <c r="AD15" t="n">
+        <v>-12185</v>
       </c>
       <c r="AE15" t="n">
         <v>-0.13</v>
       </c>
-      <c r="AF15" t="s">
-        <v>237</v>
+      <c r="AF15" t="n">
+        <v>-12185</v>
       </c>
       <c r="AG15" t="n">
         <v>-0.13</v>
@@ -3964,7 +2098,7 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="1" t="s">
-        <v>238</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s"/>
       <c r="C16" t="s"/>
@@ -3974,28 +2108,28 @@
       <c r="G16" t="s"/>
       <c r="H16" t="s"/>
       <c r="I16" t="s"/>
-      <c r="J16" t="s">
-        <v>239</v>
+      <c r="J16" t="n">
+        <v>0</v>
       </c>
       <c r="K16" t="s"/>
-      <c r="L16" t="s">
-        <v>239</v>
+      <c r="L16" t="n">
+        <v>0</v>
       </c>
       <c r="M16" t="s"/>
-      <c r="N16" t="s">
-        <v>239</v>
+      <c r="N16" t="n">
+        <v>0</v>
       </c>
       <c r="O16" t="s"/>
-      <c r="P16" t="s">
-        <v>239</v>
+      <c r="P16" t="n">
+        <v>0</v>
       </c>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s">
-        <v>239</v>
+      <c r="R16" t="n">
+        <v>0</v>
       </c>
       <c r="S16" t="s"/>
-      <c r="T16" t="s">
-        <v>239</v>
+      <c r="T16" t="n">
+        <v>0</v>
       </c>
       <c r="U16" t="s"/>
       <c r="V16" t="s"/>
@@ -4013,100 +2147,100 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B17" t="s">
-        <v>241</v>
+        <v>47</v>
+      </c>
+      <c r="B17" t="n">
+        <v>48598</v>
       </c>
       <c r="C17" t="n">
         <v>0.52</v>
       </c>
-      <c r="D17" t="s">
-        <v>242</v>
+      <c r="D17" t="n">
+        <v>33562</v>
       </c>
       <c r="E17" t="n">
         <v>0.36</v>
       </c>
-      <c r="F17" t="s">
-        <v>243</v>
+      <c r="F17" t="n">
+        <v>40582</v>
       </c>
       <c r="G17" t="n">
         <v>0.43</v>
       </c>
-      <c r="H17" t="s">
-        <v>244</v>
+      <c r="H17" t="n">
+        <v>46040</v>
       </c>
       <c r="I17" t="n">
         <v>0.48</v>
       </c>
-      <c r="J17" t="s">
-        <v>245</v>
+      <c r="J17" t="n">
+        <v>102944</v>
       </c>
       <c r="K17" t="n">
         <v>1.06</v>
       </c>
-      <c r="L17" t="s">
-        <v>246</v>
+      <c r="L17" t="n">
+        <v>49162</v>
       </c>
       <c r="M17" t="n">
         <v>0.51</v>
       </c>
-      <c r="N17" t="s">
-        <v>247</v>
+      <c r="N17" t="n">
+        <v>69306</v>
       </c>
       <c r="O17" t="n">
         <v>0.72</v>
       </c>
-      <c r="P17" t="s">
-        <v>248</v>
+      <c r="P17" t="n">
+        <v>49178</v>
       </c>
       <c r="Q17" t="n">
         <v>0.51</v>
       </c>
-      <c r="R17" t="s">
-        <v>249</v>
+      <c r="R17" t="n">
+        <v>62041</v>
       </c>
       <c r="S17" t="n">
         <v>0.64</v>
       </c>
-      <c r="T17" t="s">
-        <v>250</v>
+      <c r="T17" t="n">
+        <v>80101</v>
       </c>
       <c r="U17" t="n">
         <v>0.84</v>
       </c>
-      <c r="V17" t="s">
-        <v>251</v>
+      <c r="V17" t="n">
+        <v>27678</v>
       </c>
       <c r="W17" t="n">
         <v>0.3</v>
       </c>
-      <c r="X17" t="s">
-        <v>252</v>
+      <c r="X17" t="n">
+        <v>47046</v>
       </c>
       <c r="Y17" t="n">
         <v>0.5</v>
       </c>
-      <c r="Z17" t="s">
-        <v>253</v>
+      <c r="Z17" t="n">
+        <v>38549</v>
       </c>
       <c r="AA17" t="n">
         <v>0.41</v>
       </c>
-      <c r="AB17" t="s">
-        <v>254</v>
+      <c r="AB17" t="n">
+        <v>84381</v>
       </c>
       <c r="AC17" t="n">
         <v>0.89</v>
       </c>
-      <c r="AD17" t="s">
-        <v>255</v>
+      <c r="AD17" t="n">
+        <v>92332</v>
       </c>
       <c r="AE17" t="n">
         <v>0.99</v>
       </c>
-      <c r="AF17" t="s">
-        <v>256</v>
+      <c r="AF17" t="n">
+        <v>87459</v>
       </c>
       <c r="AG17" t="n">
         <v>0.95</v>
@@ -4114,96 +2248,96 @@
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="1" t="s">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s"/>
       <c r="C18" t="s"/>
-      <c r="D18" t="s">
-        <v>258</v>
+      <c r="D18" t="n">
+        <v>33598</v>
       </c>
       <c r="E18" t="n">
         <v>0.36</v>
       </c>
-      <c r="F18" t="s">
-        <v>259</v>
+      <c r="F18" t="n">
+        <v>37397</v>
       </c>
       <c r="G18" t="n">
         <v>0.4</v>
       </c>
-      <c r="H18" t="s">
-        <v>260</v>
+      <c r="H18" t="n">
+        <v>24864</v>
       </c>
       <c r="I18" t="n">
         <v>0.26</v>
       </c>
-      <c r="J18" t="s">
-        <v>261</v>
+      <c r="J18" t="n">
+        <v>15656</v>
       </c>
       <c r="K18" t="n">
         <v>0.16</v>
       </c>
-      <c r="L18" t="s">
-        <v>262</v>
+      <c r="L18" t="n">
+        <v>9059</v>
       </c>
       <c r="M18" t="n">
         <v>0.09</v>
       </c>
-      <c r="N18" t="s">
-        <v>263</v>
+      <c r="N18" t="n">
+        <v>20471</v>
       </c>
       <c r="O18" t="n">
         <v>0.21</v>
       </c>
-      <c r="P18" t="s">
-        <v>264</v>
+      <c r="P18" t="n">
+        <v>15367</v>
       </c>
       <c r="Q18" t="n">
         <v>0.16</v>
       </c>
-      <c r="R18" t="s">
-        <v>265</v>
+      <c r="R18" t="n">
+        <v>22120</v>
       </c>
       <c r="S18" t="n">
         <v>0.23</v>
       </c>
-      <c r="T18" t="s">
-        <v>266</v>
+      <c r="T18" t="n">
+        <v>41328</v>
       </c>
       <c r="U18" t="n">
         <v>0.43</v>
       </c>
-      <c r="V18" t="s">
-        <v>267</v>
+      <c r="V18" t="n">
+        <v>9954</v>
       </c>
       <c r="W18" t="n">
         <v>0.11</v>
       </c>
-      <c r="X18" t="s">
-        <v>268</v>
+      <c r="X18" t="n">
+        <v>28938</v>
       </c>
       <c r="Y18" t="n">
         <v>0.31</v>
       </c>
-      <c r="Z18" t="s">
-        <v>269</v>
+      <c r="Z18" t="n">
+        <v>19446</v>
       </c>
       <c r="AA18" t="n">
         <v>0.2</v>
       </c>
-      <c r="AB18" t="s">
-        <v>270</v>
+      <c r="AB18" t="n">
+        <v>80636</v>
       </c>
       <c r="AC18" t="n">
         <v>0.85</v>
       </c>
-      <c r="AD18" t="s">
-        <v>271</v>
+      <c r="AD18" t="n">
+        <v>92009</v>
       </c>
       <c r="AE18" t="n">
         <v>0.98</v>
       </c>
-      <c r="AF18" t="s">
-        <v>272</v>
+      <c r="AF18" t="n">
+        <v>60434</v>
       </c>
       <c r="AG18" t="n">
         <v>0.66</v>
@@ -4211,28 +2345,28 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B19" t="s">
-        <v>239</v>
+        <v>49</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
-      <c r="D19" t="s">
-        <v>239</v>
+      <c r="D19" t="n">
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
-      <c r="F19" t="s">
-        <v>239</v>
+      <c r="F19" t="n">
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
-      <c r="H19" t="s">
-        <v>239</v>
+      <c r="H19" t="n">
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -4264,7 +2398,7 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="1" t="s">
-        <v>274</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s"/>
       <c r="C20" t="s"/>
@@ -4282,8 +2416,8 @@
       <c r="O20" t="s"/>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="s">
-        <v>275</v>
+      <c r="R20" t="n">
+        <v>898</v>
       </c>
       <c r="S20" t="n">
         <v>0.01</v>
@@ -4294,8 +2428,8 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s"/>
-      <c r="Z20" t="s">
-        <v>239</v>
+      <c r="Z20" t="n">
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
         <v>0</v>
@@ -4309,100 +2443,100 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B21" t="s">
-        <v>277</v>
+        <v>51</v>
+      </c>
+      <c r="B21" t="n">
+        <v>57920</v>
       </c>
       <c r="C21" t="n">
         <v>0.62</v>
       </c>
-      <c r="D21" t="s">
-        <v>278</v>
+      <c r="D21" t="n">
+        <v>82513</v>
       </c>
       <c r="E21" t="n">
         <v>0.88</v>
       </c>
-      <c r="F21" t="s">
-        <v>279</v>
+      <c r="F21" t="n">
+        <v>44483</v>
       </c>
       <c r="G21" t="n">
         <v>0.47</v>
       </c>
-      <c r="H21" t="s">
-        <v>280</v>
+      <c r="H21" t="n">
+        <v>89103</v>
       </c>
       <c r="I21" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="J21" t="s">
-        <v>281</v>
+      <c r="J21" t="n">
+        <v>60973</v>
       </c>
       <c r="K21" t="n">
         <v>0.63</v>
       </c>
-      <c r="L21" t="s">
-        <v>282</v>
+      <c r="L21" t="n">
+        <v>61505</v>
       </c>
       <c r="M21" t="n">
         <v>0.63</v>
       </c>
-      <c r="N21" t="s">
-        <v>283</v>
+      <c r="N21" t="n">
+        <v>81796</v>
       </c>
       <c r="O21" t="n">
         <v>0.85</v>
       </c>
-      <c r="P21" t="s">
-        <v>284</v>
+      <c r="P21" t="n">
+        <v>91368</v>
       </c>
       <c r="Q21" t="n">
         <v>0.95</v>
       </c>
-      <c r="R21" t="s">
-        <v>285</v>
+      <c r="R21" t="n">
+        <v>64064</v>
       </c>
       <c r="S21" t="n">
         <v>0.66</v>
       </c>
-      <c r="T21" t="s">
-        <v>286</v>
+      <c r="T21" t="n">
+        <v>57186</v>
       </c>
       <c r="U21" t="n">
         <v>0.6</v>
       </c>
-      <c r="V21" t="s">
-        <v>287</v>
+      <c r="V21" t="n">
+        <v>66678</v>
       </c>
       <c r="W21" t="n">
         <v>0.72</v>
       </c>
-      <c r="X21" t="s">
-        <v>288</v>
+      <c r="X21" t="n">
+        <v>81728</v>
       </c>
       <c r="Y21" t="n">
         <v>0.87</v>
       </c>
-      <c r="Z21" t="s">
-        <v>289</v>
+      <c r="Z21" t="n">
+        <v>51569</v>
       </c>
       <c r="AA21" t="n">
         <v>0.54</v>
       </c>
-      <c r="AB21" t="s">
-        <v>290</v>
+      <c r="AB21" t="n">
+        <v>38557</v>
       </c>
       <c r="AC21" t="n">
         <v>0.41</v>
       </c>
-      <c r="AD21" t="s">
-        <v>291</v>
+      <c r="AD21" t="n">
+        <v>51297</v>
       </c>
       <c r="AE21" t="n">
         <v>0.55</v>
       </c>
-      <c r="AF21" t="s">
-        <v>292</v>
+      <c r="AF21" t="n">
+        <v>70612</v>
       </c>
       <c r="AG21" t="n">
         <v>0.77</v>
@@ -4410,100 +2544,100 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B22" t="s">
-        <v>294</v>
+        <v>52</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20995</v>
       </c>
       <c r="C22" t="n">
         <v>0.22</v>
       </c>
-      <c r="D22" t="s">
-        <v>295</v>
+      <c r="D22" t="n">
+        <v>25699</v>
       </c>
       <c r="E22" t="n">
         <v>0.27</v>
       </c>
-      <c r="F22" t="s">
-        <v>296</v>
+      <c r="F22" t="n">
+        <v>16353</v>
       </c>
       <c r="G22" t="n">
         <v>0.17</v>
       </c>
-      <c r="H22" t="s">
-        <v>297</v>
+      <c r="H22" t="n">
+        <v>25414</v>
       </c>
       <c r="I22" t="n">
         <v>0.27</v>
       </c>
-      <c r="J22" t="s">
-        <v>298</v>
+      <c r="J22" t="n">
+        <v>21344</v>
       </c>
       <c r="K22" t="n">
         <v>0.22</v>
       </c>
-      <c r="L22" t="s">
-        <v>299</v>
+      <c r="L22" t="n">
+        <v>16034</v>
       </c>
       <c r="M22" t="n">
         <v>0.16</v>
       </c>
-      <c r="N22" t="s">
-        <v>300</v>
+      <c r="N22" t="n">
+        <v>19745</v>
       </c>
       <c r="O22" t="n">
         <v>0.2</v>
       </c>
-      <c r="P22" t="s">
-        <v>301</v>
+      <c r="P22" t="n">
+        <v>17799</v>
       </c>
       <c r="Q22" t="n">
         <v>0.19</v>
       </c>
-      <c r="R22" t="s">
-        <v>302</v>
+      <c r="R22" t="n">
+        <v>16454</v>
       </c>
       <c r="S22" t="n">
         <v>0.17</v>
       </c>
-      <c r="T22" t="s">
-        <v>303</v>
+      <c r="T22" t="n">
+        <v>30549</v>
       </c>
       <c r="U22" t="n">
         <v>0.32</v>
       </c>
-      <c r="V22" t="s">
-        <v>304</v>
+      <c r="V22" t="n">
+        <v>17049</v>
       </c>
       <c r="W22" t="n">
         <v>0.18</v>
       </c>
-      <c r="X22" t="s">
-        <v>305</v>
+      <c r="X22" t="n">
+        <v>19172</v>
       </c>
       <c r="Y22" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z22" t="s">
-        <v>306</v>
+      <c r="Z22" t="n">
+        <v>12248</v>
       </c>
       <c r="AA22" t="n">
         <v>0.13</v>
       </c>
-      <c r="AB22" t="s">
-        <v>307</v>
+      <c r="AB22" t="n">
+        <v>11426</v>
       </c>
       <c r="AC22" t="n">
         <v>0.12</v>
       </c>
-      <c r="AD22" t="s">
-        <v>308</v>
+      <c r="AD22" t="n">
+        <v>9486</v>
       </c>
       <c r="AE22" t="n">
         <v>0.1</v>
       </c>
-      <c r="AF22" t="s">
-        <v>309</v>
+      <c r="AF22" t="n">
+        <v>17918</v>
       </c>
       <c r="AG22" t="n">
         <v>0.19</v>
@@ -4511,100 +2645,100 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B23" t="s">
-        <v>311</v>
+        <v>53</v>
+      </c>
+      <c r="B23" t="n">
+        <v>263544</v>
       </c>
       <c r="C23" t="n">
         <v>2.82</v>
       </c>
-      <c r="D23" t="s">
-        <v>312</v>
+      <c r="D23" t="n">
+        <v>286463</v>
       </c>
       <c r="E23" t="n">
         <v>3.06</v>
       </c>
-      <c r="F23" t="s">
-        <v>313</v>
+      <c r="F23" t="n">
+        <v>289211</v>
       </c>
       <c r="G23" t="n">
         <v>3.07</v>
       </c>
-      <c r="H23" t="s">
-        <v>314</v>
+      <c r="H23" t="n">
+        <v>310702</v>
       </c>
       <c r="I23" t="n">
         <v>3.27</v>
       </c>
-      <c r="J23" t="s">
-        <v>315</v>
+      <c r="J23" t="n">
+        <v>271790</v>
       </c>
       <c r="K23" t="n">
         <v>2.79</v>
       </c>
-      <c r="L23" t="s">
-        <v>316</v>
+      <c r="L23" t="n">
+        <v>288822</v>
       </c>
       <c r="M23" t="n">
         <v>2.97</v>
       </c>
-      <c r="N23" t="s">
-        <v>317</v>
+      <c r="N23" t="n">
+        <v>238920</v>
       </c>
       <c r="O23" t="n">
         <v>2.48</v>
       </c>
-      <c r="P23" t="s">
-        <v>318</v>
+      <c r="P23" t="n">
+        <v>355813</v>
       </c>
       <c r="Q23" t="n">
         <v>3.71</v>
       </c>
-      <c r="R23" t="s">
-        <v>319</v>
+      <c r="R23" t="n">
+        <v>271681</v>
       </c>
       <c r="S23" t="n">
         <v>2.82</v>
       </c>
-      <c r="T23" t="s">
-        <v>320</v>
+      <c r="T23" t="n">
+        <v>265312</v>
       </c>
       <c r="U23" t="n">
         <v>2.77</v>
       </c>
-      <c r="V23" t="s">
-        <v>321</v>
+      <c r="V23" t="n">
+        <v>226561</v>
       </c>
       <c r="W23" t="n">
         <v>2.45</v>
       </c>
-      <c r="X23" t="s">
-        <v>322</v>
+      <c r="X23" t="n">
+        <v>327836</v>
       </c>
       <c r="Y23" t="n">
         <v>3.49</v>
       </c>
-      <c r="Z23" t="s">
-        <v>323</v>
+      <c r="Z23" t="n">
+        <v>228739</v>
       </c>
       <c r="AA23" t="n">
         <v>2.41</v>
       </c>
-      <c r="AB23" t="s">
-        <v>324</v>
+      <c r="AB23" t="n">
+        <v>304323</v>
       </c>
       <c r="AC23" t="n">
         <v>3.2</v>
       </c>
-      <c r="AD23" t="s">
-        <v>325</v>
+      <c r="AD23" t="n">
+        <v>196319</v>
       </c>
       <c r="AE23" t="n">
         <v>2.1</v>
       </c>
-      <c r="AF23" t="s">
-        <v>326</v>
+      <c r="AF23" t="n">
+        <v>206661</v>
       </c>
       <c r="AG23" t="n">
         <v>2.24</v>
@@ -4612,100 +2746,100 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B24" t="s">
-        <v>328</v>
+        <v>54</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5254599</v>
       </c>
       <c r="C24" t="n">
         <v>56.19</v>
       </c>
-      <c r="D24" t="s">
-        <v>329</v>
+      <c r="D24" t="n">
+        <v>5247263</v>
       </c>
       <c r="E24" t="n">
         <v>56.07</v>
       </c>
-      <c r="F24" t="s">
-        <v>330</v>
+      <c r="F24" t="n">
+        <v>5240064</v>
       </c>
       <c r="G24" t="n">
         <v>55.54</v>
       </c>
-      <c r="H24" t="s">
-        <v>331</v>
+      <c r="H24" t="n">
+        <v>5126465</v>
       </c>
       <c r="I24" t="n">
         <v>53.97</v>
       </c>
-      <c r="J24" t="s">
-        <v>332</v>
+      <c r="J24" t="n">
+        <v>5121921</v>
       </c>
       <c r="K24" t="n">
         <v>52.63</v>
       </c>
-      <c r="L24" t="s">
-        <v>333</v>
+      <c r="L24" t="n">
+        <v>5115959</v>
       </c>
       <c r="M24" t="n">
         <v>52.59</v>
       </c>
-      <c r="N24" t="s">
-        <v>334</v>
+      <c r="N24" t="n">
+        <v>5111614</v>
       </c>
       <c r="O24" t="n">
         <v>52.98</v>
       </c>
-      <c r="P24" t="s">
-        <v>335</v>
+      <c r="P24" t="n">
+        <v>5001968</v>
       </c>
       <c r="Q24" t="n">
         <v>52.09</v>
       </c>
-      <c r="R24" t="s">
-        <v>336</v>
+      <c r="R24" t="n">
+        <v>5000187</v>
       </c>
       <c r="S24" t="n">
         <v>51.81</v>
       </c>
-      <c r="T24" t="s">
-        <v>337</v>
+      <c r="T24" t="n">
+        <v>4998423</v>
       </c>
       <c r="U24" t="n">
         <v>52.24</v>
       </c>
-      <c r="V24" t="s">
-        <v>338</v>
+      <c r="V24" t="n">
+        <v>4987432</v>
       </c>
       <c r="W24" t="n">
         <v>54.03</v>
       </c>
-      <c r="X24" t="s">
-        <v>339</v>
+      <c r="X24" t="n">
+        <v>4985675</v>
       </c>
       <c r="Y24" t="n">
         <v>53.14</v>
       </c>
-      <c r="Z24" t="s">
-        <v>340</v>
+      <c r="Z24" t="n">
+        <v>4996051</v>
       </c>
       <c r="AA24" t="n">
         <v>52.64</v>
       </c>
-      <c r="AB24" t="s">
-        <v>341</v>
+      <c r="AB24" t="n">
+        <v>4990622</v>
       </c>
       <c r="AC24" t="n">
         <v>52.54</v>
       </c>
-      <c r="AD24" t="s">
-        <v>342</v>
+      <c r="AD24" t="n">
+        <v>4988674</v>
       </c>
       <c r="AE24" t="n">
         <v>53.4</v>
       </c>
-      <c r="AF24" t="s">
-        <v>343</v>
+      <c r="AF24" t="n">
+        <v>4987695</v>
       </c>
       <c r="AG24" t="n">
         <v>54.17</v>
@@ -4713,100 +2847,100 @@
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B25" t="s">
-        <v>345</v>
+        <v>55</v>
+      </c>
+      <c r="B25" t="n">
+        <v>606757</v>
       </c>
       <c r="C25" t="n">
         <v>6.49</v>
       </c>
-      <c r="D25" t="s">
-        <v>346</v>
+      <c r="D25" t="n">
+        <v>755936</v>
       </c>
       <c r="E25" t="n">
         <v>8.08</v>
       </c>
-      <c r="F25" t="s">
-        <v>347</v>
+      <c r="F25" t="n">
+        <v>756757</v>
       </c>
       <c r="G25" t="n">
         <v>8.02</v>
       </c>
-      <c r="H25" t="s">
-        <v>348</v>
+      <c r="H25" t="n">
+        <v>761683</v>
       </c>
       <c r="I25" t="n">
         <v>8.02</v>
       </c>
-      <c r="J25" t="s">
-        <v>349</v>
+      <c r="J25" t="n">
+        <v>757852</v>
       </c>
       <c r="K25" t="n">
         <v>7.79</v>
       </c>
-      <c r="L25" t="s">
-        <v>350</v>
+      <c r="L25" t="n">
+        <v>578048</v>
       </c>
       <c r="M25" t="n">
         <v>5.94</v>
       </c>
-      <c r="N25" t="s">
-        <v>351</v>
+      <c r="N25" t="n">
+        <v>577938</v>
       </c>
       <c r="O25" t="n">
         <v>5.99</v>
       </c>
-      <c r="P25" t="s">
-        <v>352</v>
+      <c r="P25" t="n">
+        <v>581924</v>
       </c>
       <c r="Q25" t="n">
         <v>6.06</v>
       </c>
-      <c r="R25" t="s">
-        <v>353</v>
+      <c r="R25" t="n">
+        <v>450534</v>
       </c>
       <c r="S25" t="n">
         <v>4.67</v>
       </c>
-      <c r="T25" t="s">
-        <v>354</v>
+      <c r="T25" t="n">
+        <v>440365</v>
       </c>
       <c r="U25" t="n">
         <v>4.6</v>
       </c>
-      <c r="V25" t="s">
-        <v>355</v>
+      <c r="V25" t="n">
+        <v>442016</v>
       </c>
       <c r="W25" t="n">
         <v>4.79</v>
       </c>
-      <c r="X25" t="s">
-        <v>356</v>
+      <c r="X25" t="n">
+        <v>437957</v>
       </c>
       <c r="Y25" t="n">
         <v>4.67</v>
       </c>
-      <c r="Z25" t="s">
-        <v>357</v>
+      <c r="Z25" t="n">
+        <v>438120</v>
       </c>
       <c r="AA25" t="n">
         <v>4.62</v>
       </c>
-      <c r="AB25" t="s">
-        <v>358</v>
+      <c r="AB25" t="n">
+        <v>430592</v>
       </c>
       <c r="AC25" t="n">
         <v>4.53</v>
       </c>
-      <c r="AD25" t="s">
-        <v>359</v>
+      <c r="AD25" t="n">
+        <v>434152</v>
       </c>
       <c r="AE25" t="n">
         <v>4.65</v>
       </c>
-      <c r="AF25" t="s">
-        <v>360</v>
+      <c r="AF25" t="n">
+        <v>437381</v>
       </c>
       <c r="AG25" t="n">
         <v>4.75</v>
@@ -4814,100 +2948,100 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B26" t="s">
-        <v>362</v>
+        <v>56</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5720008</v>
       </c>
       <c r="C26" t="n">
         <v>61.17</v>
       </c>
-      <c r="D26" t="s">
-        <v>362</v>
+      <c r="D26" t="n">
+        <v>5720008</v>
       </c>
       <c r="E26" t="n">
         <v>61.12</v>
       </c>
-      <c r="F26" t="s">
-        <v>362</v>
+      <c r="F26" t="n">
+        <v>5720008</v>
       </c>
       <c r="G26" t="n">
         <v>60.63</v>
       </c>
-      <c r="H26" t="s">
-        <v>362</v>
+      <c r="H26" t="n">
+        <v>5720008</v>
       </c>
       <c r="I26" t="n">
         <v>60.22</v>
       </c>
-      <c r="J26" t="s">
-        <v>362</v>
+      <c r="J26" t="n">
+        <v>5720008</v>
       </c>
       <c r="K26" t="n">
         <v>58.77</v>
       </c>
-      <c r="L26" t="s">
-        <v>362</v>
+      <c r="L26" t="n">
+        <v>5720008</v>
       </c>
       <c r="M26" t="n">
         <v>58.8</v>
       </c>
-      <c r="N26" t="s">
-        <v>362</v>
+      <c r="N26" t="n">
+        <v>5720008</v>
       </c>
       <c r="O26" t="n">
         <v>59.29</v>
       </c>
-      <c r="P26" t="s">
-        <v>362</v>
+      <c r="P26" t="n">
+        <v>5720008</v>
       </c>
       <c r="Q26" t="n">
         <v>59.57</v>
       </c>
-      <c r="R26" t="s">
-        <v>362</v>
+      <c r="R26" t="n">
+        <v>5720008</v>
       </c>
       <c r="S26" t="n">
         <v>59.27</v>
       </c>
-      <c r="T26" t="s">
-        <v>362</v>
+      <c r="T26" t="n">
+        <v>5720008</v>
       </c>
       <c r="U26" t="n">
         <v>59.78</v>
       </c>
-      <c r="V26" t="s">
-        <v>362</v>
+      <c r="V26" t="n">
+        <v>5720008</v>
       </c>
       <c r="W26" t="n">
         <v>61.96</v>
       </c>
-      <c r="X26" t="s">
-        <v>362</v>
+      <c r="X26" t="n">
+        <v>5720008</v>
       </c>
       <c r="Y26" t="n">
         <v>60.96</v>
       </c>
-      <c r="Z26" t="s">
-        <v>362</v>
+      <c r="Z26" t="n">
+        <v>5720008</v>
       </c>
       <c r="AA26" t="n">
         <v>60.27</v>
       </c>
-      <c r="AB26" t="s">
-        <v>362</v>
+      <c r="AB26" t="n">
+        <v>5720008</v>
       </c>
       <c r="AC26" t="n">
         <v>60.22</v>
       </c>
-      <c r="AD26" t="s">
-        <v>362</v>
+      <c r="AD26" t="n">
+        <v>5720008</v>
       </c>
       <c r="AE26" t="n">
         <v>61.23</v>
       </c>
-      <c r="AF26" t="s">
-        <v>362</v>
+      <c r="AF26" t="n">
+        <v>5720008</v>
       </c>
       <c r="AG26" t="n">
         <v>62.12</v>
@@ -4915,100 +3049,100 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B27" t="s">
-        <v>364</v>
+        <v>57</v>
+      </c>
+      <c r="B27" t="n">
+        <v>132217</v>
       </c>
       <c r="C27" t="n">
         <v>1.41</v>
       </c>
-      <c r="D27" t="s">
-        <v>365</v>
+      <c r="D27" t="n">
+        <v>86736</v>
       </c>
       <c r="E27" t="n">
         <v>0.93</v>
       </c>
-      <c r="F27" t="s">
-        <v>366</v>
+      <c r="F27" t="n">
+        <v>195551</v>
       </c>
       <c r="G27" t="n">
         <v>2.07</v>
       </c>
-      <c r="H27" t="s">
-        <v>367</v>
+      <c r="H27" t="n">
+        <v>155294</v>
       </c>
       <c r="I27" t="n">
         <v>1.63</v>
       </c>
-      <c r="J27" t="s">
-        <v>368</v>
+      <c r="J27" t="n">
+        <v>223261</v>
       </c>
       <c r="K27" t="n">
         <v>2.29</v>
       </c>
-      <c r="L27" t="s">
-        <v>369</v>
+      <c r="L27" t="n">
+        <v>130767</v>
       </c>
       <c r="M27" t="n">
         <v>1.34</v>
       </c>
-      <c r="N27" t="s">
-        <v>370</v>
+      <c r="N27" t="n">
+        <v>194017</v>
       </c>
       <c r="O27" t="n">
         <v>2.01</v>
       </c>
-      <c r="P27" t="s">
-        <v>371</v>
+      <c r="P27" t="n">
+        <v>168072</v>
       </c>
       <c r="Q27" t="n">
         <v>1.75</v>
       </c>
-      <c r="R27" t="s">
-        <v>372</v>
+      <c r="R27" t="n">
+        <v>203905</v>
       </c>
       <c r="S27" t="n">
         <v>2.11</v>
       </c>
-      <c r="T27" t="s">
-        <v>373</v>
+      <c r="T27" t="n">
+        <v>100125</v>
       </c>
       <c r="U27" t="n">
         <v>1.05</v>
       </c>
-      <c r="V27" t="s">
-        <v>374</v>
+      <c r="V27" t="n">
+        <v>161394</v>
       </c>
       <c r="W27" t="n">
         <v>1.75</v>
       </c>
-      <c r="X27" t="s">
-        <v>375</v>
+      <c r="X27" t="n">
+        <v>183268</v>
       </c>
       <c r="Y27" t="n">
         <v>1.95</v>
       </c>
-      <c r="Z27" t="s">
-        <v>376</v>
+      <c r="Z27" t="n">
+        <v>300731</v>
       </c>
       <c r="AA27" t="n">
         <v>3.17</v>
       </c>
-      <c r="AB27" t="s">
-        <v>377</v>
+      <c r="AB27" t="n">
+        <v>190140</v>
       </c>
       <c r="AC27" t="n">
         <v>2</v>
       </c>
-      <c r="AD27" t="s">
-        <v>378</v>
+      <c r="AD27" t="n">
+        <v>181160</v>
       </c>
       <c r="AE27" t="n">
         <v>1.94</v>
       </c>
-      <c r="AF27" t="s">
-        <v>379</v>
+      <c r="AF27" t="n">
+        <v>169633</v>
       </c>
       <c r="AG27" t="n">
         <v>1.84</v>
@@ -5016,7 +3150,7 @@
     </row>
     <row r="28" spans="1:33">
       <c r="A28" s="1" t="s">
-        <v>380</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s"/>
       <c r="C28" t="s"/>
@@ -5034,50 +3168,50 @@
       <c r="O28" t="s"/>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
-      <c r="R28" t="s">
-        <v>381</v>
+      <c r="R28" t="n">
+        <v>6607</v>
       </c>
       <c r="S28" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="T28" t="s">
-        <v>382</v>
+      <c r="T28" t="n">
+        <v>1175</v>
       </c>
       <c r="U28" t="n">
         <v>0.01</v>
       </c>
-      <c r="V28" t="s">
-        <v>383</v>
+      <c r="V28" t="n">
+        <v>1093</v>
       </c>
       <c r="W28" t="n">
         <v>0.01</v>
       </c>
-      <c r="X28" t="s">
-        <v>384</v>
+      <c r="X28" t="n">
+        <v>1029</v>
       </c>
       <c r="Y28" t="n">
         <v>0.01</v>
       </c>
-      <c r="Z28" t="s">
-        <v>385</v>
+      <c r="Z28" t="n">
+        <v>5456</v>
       </c>
       <c r="AA28" t="n">
         <v>0.06</v>
       </c>
-      <c r="AB28" t="s">
-        <v>386</v>
+      <c r="AB28" t="n">
+        <v>5225</v>
       </c>
       <c r="AC28" t="n">
         <v>0.06</v>
       </c>
-      <c r="AD28" t="s">
-        <v>387</v>
+      <c r="AD28" t="n">
+        <v>5170</v>
       </c>
       <c r="AE28" t="n">
         <v>0.06</v>
       </c>
-      <c r="AF28" t="s">
-        <v>388</v>
+      <c r="AF28" t="n">
+        <v>6604</v>
       </c>
       <c r="AG28" t="n">
         <v>0.07000000000000001</v>
@@ -5085,7 +3219,7 @@
     </row>
     <row r="29" spans="1:33">
       <c r="A29" s="1" t="s">
-        <v>389</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s"/>
       <c r="C29" t="s"/>
@@ -5103,50 +3237,50 @@
       <c r="O29" t="s"/>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
-      <c r="R29" t="s">
-        <v>390</v>
+      <c r="R29" t="n">
+        <v>130</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
-      <c r="T29" t="s">
-        <v>391</v>
+      <c r="T29" t="n">
+        <v>90</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
-      <c r="V29" t="s">
-        <v>392</v>
+      <c r="V29" t="n">
+        <v>213</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
-      <c r="X29" t="s">
-        <v>393</v>
+      <c r="X29" t="n">
+        <v>193</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
       </c>
-      <c r="Z29" t="s">
-        <v>394</v>
+      <c r="Z29" t="n">
+        <v>239</v>
       </c>
       <c r="AA29" t="n">
         <v>0</v>
       </c>
-      <c r="AB29" t="s">
-        <v>395</v>
+      <c r="AB29" t="n">
+        <v>192</v>
       </c>
       <c r="AC29" t="n">
         <v>0</v>
       </c>
-      <c r="AD29" t="s">
-        <v>396</v>
+      <c r="AD29" t="n">
+        <v>195</v>
       </c>
       <c r="AE29" t="n">
         <v>0</v>
       </c>
-      <c r="AF29" t="s">
-        <v>397</v>
+      <c r="AF29" t="n">
+        <v>245</v>
       </c>
       <c r="AG29" t="n">
         <v>0</v>
@@ -5154,100 +3288,100 @@
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B30" t="s">
-        <v>399</v>
+        <v>60</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8590987</v>
       </c>
       <c r="C30" t="n">
         <v>91.87</v>
       </c>
-      <c r="D30" t="s">
-        <v>400</v>
+      <c r="D30" t="n">
+        <v>8504676</v>
       </c>
       <c r="E30" t="n">
         <v>90.88</v>
       </c>
-      <c r="F30" t="s">
-        <v>401</v>
+      <c r="F30" t="n">
+        <v>8668372</v>
       </c>
       <c r="G30" t="n">
         <v>91.88</v>
       </c>
-      <c r="H30" t="s">
-        <v>402</v>
+      <c r="H30" t="n">
+        <v>8714799</v>
       </c>
       <c r="I30" t="n">
         <v>91.75</v>
       </c>
-      <c r="J30" t="s">
-        <v>403</v>
+      <c r="J30" t="n">
+        <v>8866521</v>
       </c>
       <c r="K30" t="n">
         <v>91.09999999999999</v>
       </c>
-      <c r="L30" t="s">
-        <v>404</v>
+      <c r="L30" t="n">
+        <v>8869812</v>
       </c>
       <c r="M30" t="n">
         <v>91.18000000000001</v>
       </c>
-      <c r="N30" t="s">
-        <v>405</v>
+      <c r="N30" t="n">
+        <v>8901673</v>
       </c>
       <c r="O30" t="n">
         <v>92.27</v>
       </c>
-      <c r="P30" t="s">
-        <v>406</v>
+      <c r="P30" t="n">
+        <v>8859325</v>
       </c>
       <c r="Q30" t="n">
         <v>92.26000000000001</v>
       </c>
-      <c r="R30" t="s">
-        <v>407</v>
+      <c r="R30" t="n">
+        <v>8955192</v>
       </c>
       <c r="S30" t="n">
         <v>92.79000000000001</v>
       </c>
-      <c r="T30" t="s">
-        <v>408</v>
+      <c r="T30" t="n">
+        <v>8813796</v>
       </c>
       <c r="U30" t="n">
         <v>92.11</v>
       </c>
-      <c r="V30" t="s">
-        <v>409</v>
+      <c r="V30" t="n">
+        <v>8597414</v>
       </c>
       <c r="W30" t="n">
         <v>93.14</v>
       </c>
-      <c r="X30" t="s">
-        <v>410</v>
+      <c r="X30" t="n">
+        <v>8639693</v>
       </c>
       <c r="Y30" t="n">
         <v>92.08</v>
       </c>
-      <c r="Z30" t="s">
-        <v>411</v>
+      <c r="Z30" t="n">
+        <v>8916640</v>
       </c>
       <c r="AA30" t="n">
         <v>93.95999999999999</v>
       </c>
-      <c r="AB30" t="s">
-        <v>412</v>
+      <c r="AB30" t="n">
+        <v>8732738</v>
       </c>
       <c r="AC30" t="n">
         <v>91.93000000000001</v>
       </c>
-      <c r="AD30" t="s">
-        <v>413</v>
+      <c r="AD30" t="n">
+        <v>8701916</v>
       </c>
       <c r="AE30" t="n">
         <v>93.15000000000001</v>
       </c>
-      <c r="AF30" t="s">
-        <v>414</v>
+      <c r="AF30" t="n">
+        <v>8640850</v>
       </c>
       <c r="AG30" t="n">
         <v>93.84</v>
@@ -5255,100 +3389,100 @@
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B31" t="s">
-        <v>416</v>
+        <v>61</v>
+      </c>
+      <c r="B31" t="n">
+        <v>8556675</v>
       </c>
       <c r="C31" t="n">
         <v>91.5</v>
       </c>
-      <c r="D31" t="s">
-        <v>417</v>
+      <c r="D31" t="n">
+        <v>8470746</v>
       </c>
       <c r="E31" t="n">
         <v>90.51000000000001</v>
       </c>
-      <c r="F31" t="s">
-        <v>418</v>
+      <c r="F31" t="n">
+        <v>8634224</v>
       </c>
       <c r="G31" t="n">
         <v>91.52</v>
       </c>
-      <c r="H31" t="s">
-        <v>419</v>
+      <c r="H31" t="n">
+        <v>8680494</v>
       </c>
       <c r="I31" t="n">
         <v>91.39</v>
       </c>
-      <c r="J31" t="s">
-        <v>420</v>
+      <c r="J31" t="n">
+        <v>8832011</v>
       </c>
       <c r="K31" t="n">
         <v>90.75</v>
       </c>
-      <c r="L31" t="s">
-        <v>421</v>
+      <c r="L31" t="n">
+        <v>8835607</v>
       </c>
       <c r="M31" t="n">
         <v>90.83</v>
       </c>
-      <c r="N31" t="s">
-        <v>422</v>
+      <c r="N31" t="n">
+        <v>8867270</v>
       </c>
       <c r="O31" t="n">
         <v>91.91</v>
       </c>
-      <c r="P31" t="s">
-        <v>423</v>
+      <c r="P31" t="n">
+        <v>8824868</v>
       </c>
       <c r="Q31" t="n">
         <v>91.90000000000001</v>
       </c>
-      <c r="R31" t="s">
-        <v>424</v>
+      <c r="R31" t="n">
+        <v>8920582</v>
       </c>
       <c r="S31" t="n">
         <v>92.43000000000001</v>
       </c>
-      <c r="T31" t="s">
-        <v>425</v>
+      <c r="T31" t="n">
+        <v>8779536</v>
       </c>
       <c r="U31" t="n">
         <v>91.75</v>
       </c>
-      <c r="V31" t="s">
-        <v>426</v>
+      <c r="V31" t="n">
+        <v>8563032</v>
       </c>
       <c r="W31" t="n">
         <v>92.76000000000001</v>
       </c>
-      <c r="X31" t="s">
-        <v>427</v>
+      <c r="X31" t="n">
+        <v>8605230</v>
       </c>
       <c r="Y31" t="n">
         <v>91.72</v>
       </c>
-      <c r="Z31" t="s">
-        <v>428</v>
+      <c r="Z31" t="n">
+        <v>8783028</v>
       </c>
       <c r="AA31" t="n">
         <v>92.55</v>
       </c>
-      <c r="AB31" t="s">
-        <v>429</v>
+      <c r="AB31" t="n">
+        <v>8599031</v>
       </c>
       <c r="AC31" t="n">
         <v>90.52</v>
       </c>
-      <c r="AD31" t="s">
-        <v>430</v>
+      <c r="AD31" t="n">
+        <v>8567956</v>
       </c>
       <c r="AE31" t="n">
         <v>91.70999999999999</v>
       </c>
-      <c r="AF31" t="s">
-        <v>431</v>
+      <c r="AF31" t="n">
+        <v>8507604</v>
       </c>
       <c r="AG31" t="n">
         <v>92.39</v>
@@ -5356,169 +3490,169 @@
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B32" t="s">
-        <v>433</v>
+        <v>62</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2112865</v>
       </c>
       <c r="C32" t="s"/>
-      <c r="D32" t="s">
-        <v>433</v>
+      <c r="D32" t="n">
+        <v>2112865</v>
       </c>
       <c r="E32" t="s"/>
-      <c r="F32" t="s">
-        <v>433</v>
+      <c r="F32" t="n">
+        <v>2112865</v>
       </c>
       <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>433</v>
+      <c r="H32" t="n">
+        <v>2112865</v>
       </c>
       <c r="I32" t="s"/>
-      <c r="J32" t="s">
-        <v>433</v>
+      <c r="J32" t="n">
+        <v>2112865</v>
       </c>
       <c r="K32" t="s"/>
-      <c r="L32" t="s">
-        <v>433</v>
+      <c r="L32" t="n">
+        <v>2112865</v>
       </c>
       <c r="M32" t="s"/>
-      <c r="N32" t="s">
-        <v>433</v>
+      <c r="N32" t="n">
+        <v>2112865</v>
       </c>
       <c r="O32" t="s"/>
-      <c r="P32" t="s">
-        <v>433</v>
+      <c r="P32" t="n">
+        <v>2112865</v>
       </c>
       <c r="Q32" t="s"/>
-      <c r="R32" t="s">
-        <v>433</v>
+      <c r="R32" t="n">
+        <v>2112865</v>
       </c>
       <c r="S32" t="s"/>
-      <c r="T32" t="s">
-        <v>433</v>
+      <c r="T32" t="n">
+        <v>2112865</v>
       </c>
       <c r="U32" t="s"/>
-      <c r="V32" t="s">
-        <v>433</v>
+      <c r="V32" t="n">
+        <v>2112865</v>
       </c>
       <c r="W32" t="s"/>
-      <c r="X32" t="s">
-        <v>433</v>
+      <c r="X32" t="n">
+        <v>2112865</v>
       </c>
       <c r="Y32" t="s"/>
-      <c r="Z32" t="s">
-        <v>433</v>
+      <c r="Z32" t="n">
+        <v>2112865</v>
       </c>
       <c r="AA32" t="s"/>
-      <c r="AB32" t="s">
-        <v>433</v>
+      <c r="AB32" t="n">
+        <v>2112865</v>
       </c>
       <c r="AC32" t="s"/>
-      <c r="AD32" t="s">
-        <v>433</v>
+      <c r="AD32" t="n">
+        <v>2112865</v>
       </c>
       <c r="AE32" t="s"/>
-      <c r="AF32" t="s">
-        <v>433</v>
+      <c r="AF32" t="n">
+        <v>2112865</v>
       </c>
       <c r="AG32" t="s"/>
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B33" t="s">
-        <v>435</v>
+        <v>63</v>
+      </c>
+      <c r="B33" t="n">
+        <v>975170</v>
       </c>
       <c r="C33" t="n">
         <v>10.43</v>
       </c>
-      <c r="D33" t="s">
-        <v>436</v>
+      <c r="D33" t="n">
+        <v>982016</v>
       </c>
       <c r="E33" t="n">
         <v>10.49</v>
       </c>
-      <c r="F33" t="s">
-        <v>436</v>
+      <c r="F33" t="n">
+        <v>982016</v>
       </c>
       <c r="G33" t="n">
         <v>10.41</v>
       </c>
-      <c r="H33" t="s">
-        <v>436</v>
+      <c r="H33" t="n">
+        <v>982016</v>
       </c>
       <c r="I33" t="n">
         <v>10.34</v>
       </c>
-      <c r="J33" t="s">
-        <v>436</v>
+      <c r="J33" t="n">
+        <v>982016</v>
       </c>
       <c r="K33" t="n">
         <v>10.09</v>
       </c>
-      <c r="L33" t="s">
-        <v>437</v>
+      <c r="L33" t="n">
+        <v>996619</v>
       </c>
       <c r="M33" t="n">
         <v>10.24</v>
       </c>
-      <c r="N33" t="s">
-        <v>437</v>
+      <c r="N33" t="n">
+        <v>996619</v>
       </c>
       <c r="O33" t="n">
         <v>10.33</v>
       </c>
-      <c r="P33" t="s">
-        <v>437</v>
+      <c r="P33" t="n">
+        <v>996619</v>
       </c>
       <c r="Q33" t="n">
         <v>10.38</v>
       </c>
-      <c r="R33" t="s">
-        <v>437</v>
+      <c r="R33" t="n">
+        <v>996619</v>
       </c>
       <c r="S33" t="n">
         <v>10.33</v>
       </c>
-      <c r="T33" t="s">
-        <v>438</v>
+      <c r="T33" t="n">
+        <v>1010795</v>
       </c>
       <c r="U33" t="n">
         <v>10.56</v>
       </c>
-      <c r="V33" t="s">
-        <v>438</v>
+      <c r="V33" t="n">
+        <v>1010795</v>
       </c>
       <c r="W33" t="n">
         <v>10.95</v>
       </c>
-      <c r="X33" t="s">
-        <v>438</v>
+      <c r="X33" t="n">
+        <v>1010795</v>
       </c>
       <c r="Y33" t="n">
         <v>10.77</v>
       </c>
-      <c r="Z33" t="s">
-        <v>438</v>
+      <c r="Z33" t="n">
+        <v>1010795</v>
       </c>
       <c r="AA33" t="n">
         <v>10.65</v>
       </c>
-      <c r="AB33" t="s">
-        <v>439</v>
+      <c r="AB33" t="n">
+        <v>1025194</v>
       </c>
       <c r="AC33" t="n">
         <v>10.79</v>
       </c>
-      <c r="AD33" t="s">
-        <v>439</v>
+      <c r="AD33" t="n">
+        <v>1025194</v>
       </c>
       <c r="AE33" t="n">
         <v>10.97</v>
       </c>
-      <c r="AF33" t="s">
-        <v>439</v>
+      <c r="AF33" t="n">
+        <v>1025194</v>
       </c>
       <c r="AG33" t="n">
         <v>11.13</v>
@@ -5526,100 +3660,100 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B34" t="s">
-        <v>441</v>
+        <v>64</v>
+      </c>
+      <c r="B34" t="n">
+        <v>276827</v>
       </c>
       <c r="C34" t="n">
         <v>2.96</v>
       </c>
-      <c r="D34" t="s">
-        <v>442</v>
+      <c r="D34" t="n">
+        <v>382408</v>
       </c>
       <c r="E34" t="n">
         <v>4.09</v>
       </c>
-      <c r="F34" t="s">
-        <v>443</v>
+      <c r="F34" t="n">
+        <v>310060</v>
       </c>
       <c r="G34" t="n">
         <v>3.29</v>
       </c>
-      <c r="H34" t="s">
-        <v>444</v>
+      <c r="H34" t="n">
+        <v>340075</v>
       </c>
       <c r="I34" t="n">
         <v>3.58</v>
       </c>
-      <c r="J34" t="s">
-        <v>445</v>
+      <c r="J34" t="n">
+        <v>420617</v>
       </c>
       <c r="K34" t="n">
         <v>4.32</v>
       </c>
-      <c r="L34" t="s">
-        <v>446</v>
+      <c r="L34" t="n">
+        <v>412630</v>
       </c>
       <c r="M34" t="n">
         <v>4.24</v>
       </c>
-      <c r="N34" t="s">
-        <v>447</v>
+      <c r="N34" t="n">
+        <v>297820</v>
       </c>
       <c r="O34" t="n">
         <v>3.09</v>
       </c>
-      <c r="P34" t="s">
-        <v>448</v>
+      <c r="P34" t="n">
+        <v>294502</v>
       </c>
       <c r="Q34" t="n">
         <v>3.07</v>
       </c>
-      <c r="R34" t="s">
-        <v>449</v>
+      <c r="R34" t="n">
+        <v>245828</v>
       </c>
       <c r="S34" t="n">
         <v>2.55</v>
       </c>
-      <c r="T34" t="s">
-        <v>450</v>
+      <c r="T34" t="n">
+        <v>405534</v>
       </c>
       <c r="U34" t="n">
         <v>4.24</v>
       </c>
-      <c r="V34" t="s">
-        <v>451</v>
+      <c r="V34" t="n">
+        <v>281498</v>
       </c>
       <c r="W34" t="n">
         <v>3.05</v>
       </c>
-      <c r="X34" t="s">
-        <v>452</v>
+      <c r="X34" t="n">
+        <v>388568</v>
       </c>
       <c r="Y34" t="n">
         <v>4.14</v>
       </c>
-      <c r="Z34" t="s">
-        <v>453</v>
+      <c r="Z34" t="n">
+        <v>253395</v>
       </c>
       <c r="AA34" t="n">
         <v>2.67</v>
       </c>
-      <c r="AB34" t="s">
-        <v>454</v>
+      <c r="AB34" t="n">
+        <v>446822</v>
       </c>
       <c r="AC34" t="n">
         <v>4.7</v>
       </c>
-      <c r="AD34" t="s">
-        <v>455</v>
+      <c r="AD34" t="n">
+        <v>324074</v>
       </c>
       <c r="AE34" t="n">
         <v>3.47</v>
       </c>
-      <c r="AF34" t="s">
-        <v>456</v>
+      <c r="AF34" t="n">
+        <v>251953</v>
       </c>
       <c r="AG34" t="n">
         <v>2.74</v>
@@ -5627,100 +3761,100 @@
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="B35" t="s">
-        <v>458</v>
+        <v>65</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1178376</v>
       </c>
       <c r="C35" t="n">
         <v>12.6</v>
       </c>
-      <c r="D35" t="s">
-        <v>459</v>
+      <c r="D35" t="n">
+        <v>1499188</v>
       </c>
       <c r="E35" t="n">
         <v>16.02</v>
       </c>
-      <c r="F35" t="s">
-        <v>460</v>
+      <c r="F35" t="n">
+        <v>1531042</v>
       </c>
       <c r="G35" t="n">
         <v>16.23</v>
       </c>
-      <c r="H35" t="s">
-        <v>461</v>
+      <c r="H35" t="n">
+        <v>1585835</v>
       </c>
       <c r="I35" t="n">
         <v>16.7</v>
       </c>
-      <c r="J35" t="s">
-        <v>462</v>
+      <c r="J35" t="n">
+        <v>1744220</v>
       </c>
       <c r="K35" t="n">
         <v>17.92</v>
       </c>
-      <c r="L35" t="s">
-        <v>463</v>
+      <c r="L35" t="n">
+        <v>1804814</v>
       </c>
       <c r="M35" t="n">
         <v>18.55</v>
       </c>
-      <c r="N35" t="s">
-        <v>464</v>
+      <c r="N35" t="n">
+        <v>1720836</v>
       </c>
       <c r="O35" t="n">
         <v>17.84</v>
       </c>
-      <c r="P35" t="s">
-        <v>465</v>
+      <c r="P35" t="n">
+        <v>1788502</v>
       </c>
       <c r="Q35" t="n">
         <v>18.62</v>
       </c>
-      <c r="R35" t="s">
-        <v>466</v>
+      <c r="R35" t="n">
+        <v>1903486</v>
       </c>
       <c r="S35" t="n">
         <v>19.72</v>
       </c>
-      <c r="T35" t="s">
-        <v>467</v>
+      <c r="T35" t="n">
+        <v>1889216</v>
       </c>
       <c r="U35" t="n">
         <v>19.74</v>
       </c>
-      <c r="V35" t="s">
-        <v>468</v>
+      <c r="V35" t="n">
+        <v>1833526</v>
       </c>
       <c r="W35" t="n">
         <v>19.86</v>
       </c>
-      <c r="X35" t="s">
-        <v>469</v>
+      <c r="X35" t="n">
+        <v>1963758</v>
       </c>
       <c r="Y35" t="n">
         <v>20.93</v>
       </c>
-      <c r="Z35" t="s">
-        <v>470</v>
+      <c r="Z35" t="n">
+        <v>2088707</v>
       </c>
       <c r="AA35" t="n">
         <v>22.01</v>
       </c>
-      <c r="AB35" t="s">
-        <v>471</v>
+      <c r="AB35" t="n">
+        <v>2197446</v>
       </c>
       <c r="AC35" t="n">
         <v>23.13</v>
       </c>
-      <c r="AD35" t="s">
-        <v>472</v>
+      <c r="AD35" t="n">
+        <v>2078659</v>
       </c>
       <c r="AE35" t="n">
         <v>22.25</v>
       </c>
-      <c r="AF35" t="s">
-        <v>473</v>
+      <c r="AF35" t="n">
+        <v>1998413</v>
       </c>
       <c r="AG35" t="n">
         <v>21.7</v>
@@ -5728,100 +3862,100 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B36" t="s">
-        <v>475</v>
+        <v>66</v>
+      </c>
+      <c r="B36" t="n">
+        <v>679</v>
       </c>
       <c r="C36" t="n">
         <v>0.01</v>
       </c>
-      <c r="D36" t="s">
-        <v>476</v>
+      <c r="D36" t="n">
+        <v>601</v>
       </c>
       <c r="E36" t="n">
         <v>0.01</v>
       </c>
-      <c r="F36" t="s">
-        <v>477</v>
+      <c r="F36" t="n">
+        <v>523</v>
       </c>
       <c r="G36" t="n">
         <v>0.01</v>
       </c>
-      <c r="H36" t="s">
-        <v>478</v>
+      <c r="H36" t="n">
+        <v>445</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="s">
-        <v>479</v>
+      <c r="J36" t="n">
+        <v>394</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
-      <c r="L36" t="s">
-        <v>480</v>
+      <c r="L36" t="n">
+        <v>342</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
-      <c r="N36" t="s">
-        <v>481</v>
+      <c r="N36" t="n">
+        <v>291</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
-      <c r="P36" t="s">
-        <v>394</v>
+      <c r="P36" t="n">
+        <v>239</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
-      <c r="R36" t="s">
-        <v>482</v>
+      <c r="R36" t="n">
+        <v>188</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
-      <c r="T36" t="s">
-        <v>483</v>
+      <c r="T36" t="n">
+        <v>145</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
-      <c r="V36" t="s">
-        <v>484</v>
+      <c r="V36" t="n">
+        <v>105</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
-      <c r="X36" t="s">
-        <v>485</v>
+      <c r="X36" t="n">
+        <v>66</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
       </c>
-      <c r="Z36" t="s">
-        <v>486</v>
+      <c r="Z36" t="n">
+        <v>26</v>
       </c>
       <c r="AA36" t="n">
         <v>0</v>
       </c>
-      <c r="AB36" t="s">
-        <v>239</v>
+      <c r="AB36" t="n">
+        <v>0</v>
       </c>
       <c r="AC36" t="n">
         <v>0</v>
       </c>
-      <c r="AD36" t="s">
-        <v>239</v>
+      <c r="AD36" t="n">
+        <v>0</v>
       </c>
       <c r="AE36" t="n">
         <v>0</v>
       </c>
-      <c r="AF36" t="s">
-        <v>239</v>
+      <c r="AF36" t="n">
+        <v>0</v>
       </c>
       <c r="AG36" t="n">
         <v>0</v>
@@ -5829,100 +3963,100 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B37" t="s">
-        <v>488</v>
+        <v>67</v>
+      </c>
+      <c r="B37" t="n">
+        <v>820587</v>
       </c>
       <c r="C37" t="n">
         <v>8.779999999999999</v>
       </c>
-      <c r="D37" t="s">
-        <v>489</v>
+      <c r="D37" t="n">
+        <v>819012</v>
       </c>
       <c r="E37" t="n">
         <v>8.75</v>
       </c>
-      <c r="F37" t="s">
-        <v>489</v>
+      <c r="F37" t="n">
+        <v>819012</v>
       </c>
       <c r="G37" t="n">
         <v>8.68</v>
       </c>
-      <c r="H37" t="s">
-        <v>489</v>
+      <c r="H37" t="n">
+        <v>819012</v>
       </c>
       <c r="I37" t="n">
         <v>8.619999999999999</v>
       </c>
-      <c r="J37" t="s">
-        <v>489</v>
+      <c r="J37" t="n">
+        <v>819012</v>
       </c>
       <c r="K37" t="n">
         <v>8.42</v>
       </c>
-      <c r="L37" t="s">
-        <v>489</v>
+      <c r="L37" t="n">
+        <v>819012</v>
       </c>
       <c r="M37" t="n">
         <v>8.42</v>
       </c>
-      <c r="N37" t="s">
-        <v>489</v>
+      <c r="N37" t="n">
+        <v>819012</v>
       </c>
       <c r="O37" t="n">
         <v>8.49</v>
       </c>
-      <c r="P37" t="s">
-        <v>489</v>
+      <c r="P37" t="n">
+        <v>819012</v>
       </c>
       <c r="Q37" t="n">
         <v>8.529999999999999</v>
       </c>
-      <c r="R37" t="s">
-        <v>489</v>
+      <c r="R37" t="n">
+        <v>819012</v>
       </c>
       <c r="S37" t="n">
         <v>8.49</v>
       </c>
-      <c r="T37" t="s">
-        <v>489</v>
+      <c r="T37" t="n">
+        <v>819012</v>
       </c>
       <c r="U37" t="n">
         <v>8.56</v>
       </c>
-      <c r="V37" t="s">
-        <v>489</v>
+      <c r="V37" t="n">
+        <v>819012</v>
       </c>
       <c r="W37" t="n">
         <v>8.869999999999999</v>
       </c>
-      <c r="X37" t="s">
-        <v>489</v>
+      <c r="X37" t="n">
+        <v>819012</v>
       </c>
       <c r="Y37" t="n">
         <v>8.73</v>
       </c>
-      <c r="Z37" t="s">
-        <v>489</v>
+      <c r="Z37" t="n">
+        <v>819012</v>
       </c>
       <c r="AA37" t="n">
         <v>8.630000000000001</v>
       </c>
-      <c r="AB37" t="s">
-        <v>489</v>
+      <c r="AB37" t="n">
+        <v>819012</v>
       </c>
       <c r="AC37" t="n">
         <v>8.619999999999999</v>
       </c>
-      <c r="AD37" t="s">
-        <v>489</v>
+      <c r="AD37" t="n">
+        <v>819012</v>
       </c>
       <c r="AE37" t="n">
         <v>8.77</v>
       </c>
-      <c r="AF37" t="s">
-        <v>490</v>
+      <c r="AF37" t="n">
+        <v>812408</v>
       </c>
       <c r="AG37" t="n">
         <v>8.82</v>
@@ -5930,100 +4064,100 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B38" t="s">
-        <v>492</v>
+        <v>68</v>
+      </c>
+      <c r="B38" t="n">
+        <v>135666</v>
       </c>
       <c r="C38" t="n">
         <v>1.45</v>
       </c>
-      <c r="D38" t="s">
-        <v>493</v>
+      <c r="D38" t="n">
+        <v>184405</v>
       </c>
       <c r="E38" t="n">
         <v>1.97</v>
       </c>
-      <c r="F38" t="s">
-        <v>494</v>
+      <c r="F38" t="n">
+        <v>262233</v>
       </c>
       <c r="G38" t="n">
         <v>2.78</v>
       </c>
-      <c r="H38" t="s">
-        <v>495</v>
+      <c r="H38" t="n">
+        <v>241300</v>
       </c>
       <c r="I38" t="n">
         <v>2.54</v>
       </c>
-      <c r="J38" t="s">
-        <v>496</v>
+      <c r="J38" t="n">
+        <v>364129</v>
       </c>
       <c r="K38" t="n">
         <v>3.74</v>
       </c>
-      <c r="L38" t="s">
-        <v>497</v>
+      <c r="L38" t="n">
+        <v>278779</v>
       </c>
       <c r="M38" t="n">
         <v>2.87</v>
       </c>
-      <c r="N38" t="s">
-        <v>498</v>
+      <c r="N38" t="n">
+        <v>324282</v>
       </c>
       <c r="O38" t="n">
         <v>3.36</v>
       </c>
-      <c r="P38" t="s">
-        <v>499</v>
+      <c r="P38" t="n">
+        <v>314885</v>
       </c>
       <c r="Q38" t="n">
         <v>3.28</v>
       </c>
-      <c r="R38" t="s">
-        <v>500</v>
+      <c r="R38" t="n">
+        <v>415672</v>
       </c>
       <c r="S38" t="n">
         <v>4.31</v>
       </c>
-      <c r="T38" t="s">
-        <v>501</v>
+      <c r="T38" t="n">
+        <v>434526</v>
       </c>
       <c r="U38" t="n">
         <v>4.54</v>
       </c>
-      <c r="V38" t="s">
-        <v>502</v>
+      <c r="V38" t="n">
+        <v>527490</v>
       </c>
       <c r="W38" t="n">
         <v>5.71</v>
       </c>
-      <c r="X38" t="s">
-        <v>503</v>
+      <c r="X38" t="n">
+        <v>496486</v>
       </c>
       <c r="Y38" t="n">
         <v>5.29</v>
       </c>
-      <c r="Z38" t="s">
-        <v>504</v>
+      <c r="Z38" t="n">
+        <v>663616</v>
       </c>
       <c r="AA38" t="n">
         <v>6.99</v>
       </c>
-      <c r="AB38" t="s">
-        <v>505</v>
+      <c r="AB38" t="n">
+        <v>390610</v>
       </c>
       <c r="AC38" t="n">
         <v>4.11</v>
       </c>
-      <c r="AD38" t="s">
-        <v>506</v>
+      <c r="AD38" t="n">
+        <v>428364</v>
       </c>
       <c r="AE38" t="n">
         <v>4.59</v>
       </c>
-      <c r="AF38" t="s">
-        <v>507</v>
+      <c r="AF38" t="n">
+        <v>447029</v>
       </c>
       <c r="AG38" t="n">
         <v>4.85</v>
@@ -6031,52 +4165,52 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="B39" t="s">
-        <v>509</v>
+        <v>69</v>
+      </c>
+      <c r="B39" t="n">
+        <v>23061</v>
       </c>
       <c r="C39" t="n">
         <v>0.25</v>
       </c>
-      <c r="D39" t="s">
-        <v>510</v>
+      <c r="D39" t="n">
+        <v>447</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
-      <c r="F39" t="s">
-        <v>511</v>
+      <c r="F39" t="n">
+        <v>379</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
-      <c r="H39" t="s">
-        <v>512</v>
+      <c r="H39" t="n">
+        <v>546</v>
       </c>
       <c r="I39" t="n">
         <v>0.01</v>
       </c>
-      <c r="J39" t="s">
-        <v>512</v>
+      <c r="J39" t="n">
+        <v>546</v>
       </c>
       <c r="K39" t="n">
         <v>0.01</v>
       </c>
-      <c r="L39" t="s">
-        <v>513</v>
+      <c r="L39" t="n">
+        <v>5454</v>
       </c>
       <c r="M39" t="n">
         <v>0.06</v>
       </c>
-      <c r="N39" t="s">
-        <v>514</v>
+      <c r="N39" t="n">
+        <v>3698</v>
       </c>
       <c r="O39" t="n">
         <v>0.04</v>
       </c>
-      <c r="P39" t="s">
-        <v>381</v>
+      <c r="P39" t="n">
+        <v>6607</v>
       </c>
       <c r="Q39" t="n">
         <v>0.07000000000000001</v>
@@ -6100,52 +4234,52 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B40" t="s">
-        <v>516</v>
+        <v>70</v>
+      </c>
+      <c r="B40" t="n">
+        <v>506</v>
       </c>
       <c r="C40" t="n">
         <v>0.01</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" t="n">
         <v>517</v>
       </c>
       <c r="E40" t="n">
         <v>0.01</v>
       </c>
-      <c r="F40" t="s">
-        <v>518</v>
+      <c r="F40" t="n">
+        <v>664</v>
       </c>
       <c r="G40" t="n">
         <v>0.01</v>
       </c>
-      <c r="H40" t="s">
-        <v>519</v>
+      <c r="H40" t="n">
+        <v>399</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="s">
-        <v>520</v>
+      <c r="J40" t="n">
+        <v>532</v>
       </c>
       <c r="K40" t="n">
         <v>0.01</v>
       </c>
-      <c r="L40" t="s">
-        <v>521</v>
+      <c r="L40" t="n">
+        <v>3</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
-      <c r="N40" t="s">
-        <v>522</v>
+      <c r="N40" t="n">
+        <v>115</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
-      <c r="P40" t="s">
-        <v>523</v>
+      <c r="P40" t="n">
+        <v>4</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -6169,34 +4303,34 @@
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B41" t="s">
-        <v>239</v>
+        <v>71</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
-      <c r="D41" t="s">
-        <v>239</v>
+      <c r="D41" t="n">
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
-      <c r="F41" t="s">
-        <v>239</v>
+      <c r="F41" t="n">
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
-      <c r="H41" t="s">
-        <v>239</v>
+      <c r="H41" t="n">
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="s">
-        <v>525</v>
+      <c r="J41" t="n">
+        <v>60670</v>
       </c>
       <c r="K41" t="n">
         <v>0.62</v>
@@ -6207,8 +4341,8 @@
       <c r="O41" t="s"/>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
-      <c r="R41" t="s">
-        <v>239</v>
+      <c r="R41" t="n">
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -6219,8 +4353,8 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s"/>
-      <c r="Z41" t="s">
-        <v>526</v>
+      <c r="Z41" t="n">
+        <v>7000</v>
       </c>
       <c r="AA41" t="n">
         <v>0.07000000000000001</v>
@@ -6234,100 +4368,100 @@
     </row>
     <row r="42" spans="1:33">
       <c r="A42" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B42" t="s">
-        <v>362</v>
+        <v>72</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5720008</v>
       </c>
       <c r="C42" t="n">
         <v>61.17</v>
       </c>
-      <c r="D42" t="s">
-        <v>362</v>
+      <c r="D42" t="n">
+        <v>5720008</v>
       </c>
       <c r="E42" t="n">
         <v>61.12</v>
       </c>
-      <c r="F42" t="s">
-        <v>362</v>
+      <c r="F42" t="n">
+        <v>5720008</v>
       </c>
       <c r="G42" t="n">
         <v>60.63</v>
       </c>
-      <c r="H42" t="s">
-        <v>362</v>
+      <c r="H42" t="n">
+        <v>5720008</v>
       </c>
       <c r="I42" t="n">
         <v>60.22</v>
       </c>
-      <c r="J42" t="s">
-        <v>362</v>
+      <c r="J42" t="n">
+        <v>5720008</v>
       </c>
       <c r="K42" t="n">
         <v>58.77</v>
       </c>
-      <c r="L42" t="s">
-        <v>362</v>
+      <c r="L42" t="n">
+        <v>5720008</v>
       </c>
       <c r="M42" t="n">
         <v>58.8</v>
       </c>
-      <c r="N42" t="s">
-        <v>362</v>
+      <c r="N42" t="n">
+        <v>5720008</v>
       </c>
       <c r="O42" t="n">
         <v>59.29</v>
       </c>
-      <c r="P42" t="s">
-        <v>362</v>
+      <c r="P42" t="n">
+        <v>5720008</v>
       </c>
       <c r="Q42" t="n">
         <v>59.57</v>
       </c>
-      <c r="R42" t="s">
-        <v>362</v>
+      <c r="R42" t="n">
+        <v>5720008</v>
       </c>
       <c r="S42" t="n">
         <v>59.27</v>
       </c>
-      <c r="T42" t="s">
-        <v>362</v>
+      <c r="T42" t="n">
+        <v>5720008</v>
       </c>
       <c r="U42" t="n">
         <v>59.78</v>
       </c>
-      <c r="V42" t="s">
-        <v>362</v>
+      <c r="V42" t="n">
+        <v>5720008</v>
       </c>
       <c r="W42" t="n">
         <v>61.96</v>
       </c>
-      <c r="X42" t="s">
-        <v>362</v>
+      <c r="X42" t="n">
+        <v>5720008</v>
       </c>
       <c r="Y42" t="n">
         <v>60.96</v>
       </c>
-      <c r="Z42" t="s">
-        <v>362</v>
+      <c r="Z42" t="n">
+        <v>5720008</v>
       </c>
       <c r="AA42" t="n">
         <v>60.27</v>
       </c>
-      <c r="AB42" t="s">
-        <v>362</v>
+      <c r="AB42" t="n">
+        <v>5720008</v>
       </c>
       <c r="AC42" t="n">
         <v>60.22</v>
       </c>
-      <c r="AD42" t="s">
-        <v>362</v>
+      <c r="AD42" t="n">
+        <v>5720008</v>
       </c>
       <c r="AE42" t="n">
         <v>61.23</v>
       </c>
-      <c r="AF42" t="s">
-        <v>362</v>
+      <c r="AF42" t="n">
+        <v>5720008</v>
       </c>
       <c r="AG42" t="n">
         <v>62.12</v>
@@ -6335,7 +4469,7 @@
     </row>
     <row r="43" spans="1:33">
       <c r="A43" s="1" t="s">
-        <v>528</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s"/>
       <c r="C43" t="s"/>
@@ -6353,50 +4487,50 @@
       <c r="O43" t="s"/>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
-      <c r="R43" t="s">
-        <v>529</v>
+      <c r="R43" t="n">
+        <v>9650759</v>
       </c>
       <c r="S43" t="n">
         <v>100</v>
       </c>
-      <c r="T43" t="s">
-        <v>530</v>
+      <c r="T43" t="n">
+        <v>9568815</v>
       </c>
       <c r="U43" t="n">
         <v>100</v>
       </c>
-      <c r="V43" t="s">
-        <v>531</v>
+      <c r="V43" t="n">
+        <v>9231047</v>
       </c>
       <c r="W43" t="n">
         <v>100</v>
       </c>
-      <c r="X43" t="s">
-        <v>532</v>
+      <c r="X43" t="n">
+        <v>9382538</v>
       </c>
       <c r="Y43" t="n">
         <v>100</v>
       </c>
-      <c r="Z43" t="s">
-        <v>533</v>
+      <c r="Z43" t="n">
+        <v>9490267</v>
       </c>
       <c r="AA43" t="n">
         <v>100</v>
       </c>
-      <c r="AB43" t="s">
-        <v>534</v>
+      <c r="AB43" t="n">
+        <v>9499279</v>
       </c>
       <c r="AC43" t="n">
         <v>100</v>
       </c>
-      <c r="AD43" t="s">
-        <v>535</v>
+      <c r="AD43" t="n">
+        <v>9342162</v>
       </c>
       <c r="AE43" t="n">
         <v>100</v>
       </c>
-      <c r="AF43" t="s">
-        <v>536</v>
+      <c r="AF43" t="n">
+        <v>9208246</v>
       </c>
       <c r="AG43" t="n">
         <v>100</v>
@@ -6404,100 +4538,100 @@
     </row>
     <row r="44" spans="1:33">
       <c r="A44" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B44" t="s">
-        <v>538</v>
+        <v>74</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2810</v>
       </c>
       <c r="C44" t="n">
         <v>0.03</v>
       </c>
-      <c r="D44" t="s">
-        <v>539</v>
+      <c r="D44" t="n">
+        <v>2743</v>
       </c>
       <c r="E44" t="n">
         <v>0.03</v>
       </c>
-      <c r="F44" t="s">
-        <v>540</v>
+      <c r="F44" t="n">
+        <v>2772</v>
       </c>
       <c r="G44" t="n">
         <v>0.03</v>
       </c>
-      <c r="H44" t="s">
-        <v>541</v>
+      <c r="H44" t="n">
+        <v>2801</v>
       </c>
       <c r="I44" t="n">
         <v>0.03</v>
       </c>
-      <c r="J44" t="s">
-        <v>542</v>
+      <c r="J44" t="n">
+        <v>2875</v>
       </c>
       <c r="K44" t="n">
         <v>0.03</v>
       </c>
-      <c r="L44" t="s">
-        <v>543</v>
+      <c r="L44" t="n">
+        <v>2949</v>
       </c>
       <c r="M44" t="n">
         <v>0.03</v>
       </c>
-      <c r="N44" t="s">
-        <v>544</v>
+      <c r="N44" t="n">
+        <v>3023</v>
       </c>
       <c r="O44" t="n">
         <v>0.03</v>
       </c>
-      <c r="P44" t="s">
-        <v>545</v>
+      <c r="P44" t="n">
+        <v>3096</v>
       </c>
       <c r="Q44" t="n">
         <v>0.03</v>
       </c>
-      <c r="R44" t="s">
-        <v>546</v>
+      <c r="R44" t="n">
+        <v>3054</v>
       </c>
       <c r="S44" t="n">
         <v>0.03</v>
       </c>
-      <c r="T44" t="s">
-        <v>547</v>
+      <c r="T44" t="n">
+        <v>2926</v>
       </c>
       <c r="U44" t="n">
         <v>0.03</v>
       </c>
-      <c r="V44" t="s">
-        <v>548</v>
+      <c r="V44" t="n">
+        <v>41584</v>
       </c>
       <c r="W44" t="n">
         <v>0.45</v>
       </c>
-      <c r="X44" t="s">
-        <v>549</v>
+      <c r="X44" t="n">
+        <v>2842</v>
       </c>
       <c r="Y44" t="n">
         <v>0.03</v>
       </c>
-      <c r="Z44" t="s">
-        <v>550</v>
+      <c r="Z44" t="n">
+        <v>2906</v>
       </c>
       <c r="AA44" t="n">
         <v>0.03</v>
       </c>
-      <c r="AB44" t="s">
-        <v>551</v>
+      <c r="AB44" t="n">
+        <v>2969</v>
       </c>
       <c r="AC44" t="n">
         <v>0.03</v>
       </c>
-      <c r="AD44" t="s">
-        <v>552</v>
+      <c r="AD44" t="n">
+        <v>3033</v>
       </c>
       <c r="AE44" t="n">
         <v>0.03</v>
       </c>
-      <c r="AF44" t="s">
-        <v>553</v>
+      <c r="AF44" t="n">
+        <v>3097</v>
       </c>
       <c r="AG44" t="n">
         <v>0.03</v>
@@ -6505,100 +4639,100 @@
     </row>
     <row r="45" spans="1:33">
       <c r="A45" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B45" t="s">
-        <v>555</v>
+        <v>75</v>
+      </c>
+      <c r="B45" t="n">
+        <v>760286</v>
       </c>
       <c r="C45" t="n">
         <v>8.130000000000001</v>
       </c>
-      <c r="D45" t="s">
-        <v>556</v>
+      <c r="D45" t="n">
+        <v>853946</v>
       </c>
       <c r="E45" t="n">
         <v>9.119999999999999</v>
       </c>
-      <c r="F45" t="s">
-        <v>557</v>
+      <c r="F45" t="n">
+        <v>765985</v>
       </c>
       <c r="G45" t="n">
         <v>8.119999999999999</v>
       </c>
-      <c r="H45" t="s">
-        <v>558</v>
+      <c r="H45" t="n">
+        <v>783740</v>
       </c>
       <c r="I45" t="n">
         <v>8.25</v>
       </c>
-      <c r="J45" t="s">
-        <v>559</v>
+      <c r="J45" t="n">
+        <v>865779</v>
       </c>
       <c r="K45" t="n">
         <v>8.9</v>
       </c>
-      <c r="L45" t="s">
-        <v>560</v>
+      <c r="L45" t="n">
+        <v>858197</v>
       </c>
       <c r="M45" t="n">
         <v>8.82</v>
       </c>
-      <c r="N45" t="s">
-        <v>561</v>
+      <c r="N45" t="n">
+        <v>745766</v>
       </c>
       <c r="O45" t="n">
         <v>7.73</v>
       </c>
-      <c r="P45" t="s">
-        <v>562</v>
+      <c r="P45" t="n">
+        <v>743412</v>
       </c>
       <c r="Q45" t="n">
         <v>7.74</v>
       </c>
-      <c r="R45" t="s">
-        <v>563</v>
+      <c r="R45" t="n">
+        <v>695567</v>
       </c>
       <c r="S45" t="n">
         <v>7.21</v>
       </c>
-      <c r="T45" t="s">
-        <v>564</v>
+      <c r="T45" t="n">
+        <v>755019</v>
       </c>
       <c r="U45" t="n">
         <v>7.89</v>
       </c>
-      <c r="V45" t="s">
-        <v>565</v>
+      <c r="V45" t="n">
+        <v>633633</v>
       </c>
       <c r="W45" t="n">
         <v>6.86</v>
       </c>
-      <c r="X45" t="s">
-        <v>566</v>
+      <c r="X45" t="n">
+        <v>742845</v>
       </c>
       <c r="Y45" t="n">
         <v>7.92</v>
       </c>
-      <c r="Z45" t="s">
-        <v>567</v>
+      <c r="Z45" t="n">
+        <v>573627</v>
       </c>
       <c r="AA45" t="n">
         <v>6.04</v>
       </c>
-      <c r="AB45" t="s">
-        <v>568</v>
+      <c r="AB45" t="n">
+        <v>766541</v>
       </c>
       <c r="AC45" t="n">
         <v>8.07</v>
       </c>
-      <c r="AD45" t="s">
-        <v>569</v>
+      <c r="AD45" t="n">
+        <v>640246</v>
       </c>
       <c r="AE45" t="n">
         <v>6.85</v>
       </c>
-      <c r="AF45" t="s">
-        <v>570</v>
+      <c r="AF45" t="n">
+        <v>567396</v>
       </c>
       <c r="AG45" t="n">
         <v>6.16</v>
@@ -6606,100 +4740,100 @@
     </row>
     <row r="46" spans="1:33">
       <c r="A46" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="B46" t="s">
-        <v>572</v>
+        <v>76</v>
+      </c>
+      <c r="B46" t="n">
+        <v>183902</v>
       </c>
       <c r="C46" t="n">
         <v>1.97</v>
       </c>
-      <c r="D46" t="s">
-        <v>573</v>
+      <c r="D46" t="n">
+        <v>184007</v>
       </c>
       <c r="E46" t="n">
         <v>1.97</v>
       </c>
-      <c r="F46" t="s">
-        <v>573</v>
+      <c r="F46" t="n">
+        <v>184007</v>
       </c>
       <c r="G46" t="n">
         <v>1.95</v>
       </c>
-      <c r="H46" t="s">
-        <v>574</v>
+      <c r="H46" t="n">
+        <v>184707</v>
       </c>
       <c r="I46" t="n">
         <v>1.94</v>
       </c>
-      <c r="J46" t="s">
-        <v>574</v>
+      <c r="J46" t="n">
+        <v>184707</v>
       </c>
       <c r="K46" t="n">
         <v>1.9</v>
       </c>
-      <c r="L46" t="s">
-        <v>575</v>
+      <c r="L46" t="n">
+        <v>184916</v>
       </c>
       <c r="M46" t="n">
         <v>1.9</v>
       </c>
-      <c r="N46" t="s">
-        <v>575</v>
+      <c r="N46" t="n">
+        <v>184916</v>
       </c>
       <c r="O46" t="n">
         <v>1.92</v>
       </c>
-      <c r="P46" t="s">
-        <v>575</v>
+      <c r="P46" t="n">
+        <v>184916</v>
       </c>
       <c r="Q46" t="n">
         <v>1.93</v>
       </c>
-      <c r="R46" t="s">
-        <v>575</v>
+      <c r="R46" t="n">
+        <v>184916</v>
       </c>
       <c r="S46" t="n">
         <v>1.92</v>
       </c>
-      <c r="T46" t="s">
-        <v>576</v>
+      <c r="T46" t="n">
+        <v>185126</v>
       </c>
       <c r="U46" t="n">
         <v>1.93</v>
       </c>
-      <c r="V46" t="s">
-        <v>576</v>
+      <c r="V46" t="n">
+        <v>185126</v>
       </c>
       <c r="W46" t="n">
         <v>2.01</v>
       </c>
-      <c r="X46" t="s">
-        <v>577</v>
+      <c r="X46" t="n">
+        <v>184834</v>
       </c>
       <c r="Y46" t="n">
         <v>1.97</v>
       </c>
-      <c r="Z46" t="s">
-        <v>577</v>
+      <c r="Z46" t="n">
+        <v>184834</v>
       </c>
       <c r="AA46" t="n">
         <v>1.95</v>
       </c>
-      <c r="AB46" t="s">
-        <v>578</v>
+      <c r="AB46" t="n">
+        <v>185044</v>
       </c>
       <c r="AC46" t="n">
         <v>1.95</v>
       </c>
-      <c r="AD46" t="s">
-        <v>578</v>
+      <c r="AD46" t="n">
+        <v>185044</v>
       </c>
       <c r="AE46" t="n">
         <v>1.98</v>
       </c>
-      <c r="AF46" t="s">
-        <v>578</v>
+      <c r="AF46" t="n">
+        <v>185044</v>
       </c>
       <c r="AG46" t="n">
         <v>2.01</v>
@@ -6707,100 +4841,100 @@
     </row>
     <row r="47" spans="1:33">
       <c r="A47" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B47" t="s">
-        <v>580</v>
+        <v>77</v>
+      </c>
+      <c r="B47" t="n">
+        <v>9351273</v>
       </c>
       <c r="C47" t="n">
         <v>100</v>
       </c>
-      <c r="D47" t="s">
-        <v>581</v>
+      <c r="D47" t="n">
+        <v>9358622</v>
       </c>
       <c r="E47" t="n">
         <v>100</v>
       </c>
-      <c r="F47" t="s">
-        <v>582</v>
+      <c r="F47" t="n">
+        <v>9434357</v>
       </c>
       <c r="G47" t="n">
         <v>100</v>
       </c>
-      <c r="H47" t="s">
-        <v>583</v>
+      <c r="H47" t="n">
+        <v>9498539</v>
       </c>
       <c r="I47" t="n">
         <v>100</v>
       </c>
-      <c r="J47" t="s">
-        <v>584</v>
+      <c r="J47" t="n">
+        <v>9732300</v>
       </c>
       <c r="K47" t="n">
         <v>100</v>
       </c>
-      <c r="L47" t="s">
-        <v>585</v>
+      <c r="L47" t="n">
+        <v>9728009</v>
       </c>
       <c r="M47" t="n">
         <v>100</v>
       </c>
-      <c r="N47" t="s">
-        <v>586</v>
+      <c r="N47" t="n">
+        <v>9647439</v>
       </c>
       <c r="O47" t="n">
         <v>100</v>
       </c>
-      <c r="P47" t="s">
-        <v>587</v>
+      <c r="P47" t="n">
+        <v>9602737</v>
       </c>
       <c r="Q47" t="n">
         <v>100</v>
       </c>
-      <c r="R47" t="s">
-        <v>529</v>
+      <c r="R47" t="n">
+        <v>9650759</v>
       </c>
       <c r="S47" t="n">
         <v>100</v>
       </c>
-      <c r="T47" t="s">
-        <v>530</v>
+      <c r="T47" t="n">
+        <v>9568815</v>
       </c>
       <c r="U47" t="n">
         <v>100</v>
       </c>
-      <c r="V47" t="s">
-        <v>531</v>
+      <c r="V47" t="n">
+        <v>9231047</v>
       </c>
       <c r="W47" t="n">
         <v>100</v>
       </c>
-      <c r="X47" t="s">
-        <v>532</v>
+      <c r="X47" t="n">
+        <v>9382538</v>
       </c>
       <c r="Y47" t="n">
         <v>100</v>
       </c>
-      <c r="Z47" t="s">
-        <v>533</v>
+      <c r="Z47" t="n">
+        <v>9490267</v>
       </c>
       <c r="AA47" t="n">
         <v>100</v>
       </c>
-      <c r="AB47" t="s">
-        <v>534</v>
+      <c r="AB47" t="n">
+        <v>9499279</v>
       </c>
       <c r="AC47" t="n">
         <v>100</v>
       </c>
-      <c r="AD47" t="s">
-        <v>535</v>
+      <c r="AD47" t="n">
+        <v>9342162</v>
       </c>
       <c r="AE47" t="n">
         <v>100</v>
       </c>
-      <c r="AF47" t="s">
-        <v>536</v>
+      <c r="AF47" t="n">
+        <v>9208246</v>
       </c>
       <c r="AG47" t="n">
         <v>100</v>
@@ -6808,100 +4942,100 @@
     </row>
     <row r="48" spans="1:33">
       <c r="A48" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="B48" t="s">
-        <v>589</v>
+        <v>78</v>
+      </c>
+      <c r="B48" t="n">
+        <v>113040</v>
       </c>
       <c r="C48" t="n">
         <v>1.21</v>
       </c>
-      <c r="D48" t="s">
-        <v>590</v>
+      <c r="D48" t="n">
+        <v>310095</v>
       </c>
       <c r="E48" t="n">
         <v>3.31</v>
       </c>
-      <c r="F48" t="s">
-        <v>591</v>
+      <c r="F48" t="n">
+        <v>262276</v>
       </c>
       <c r="G48" t="n">
         <v>2.78</v>
       </c>
-      <c r="H48" t="s">
-        <v>592</v>
+      <c r="H48" t="n">
+        <v>297195</v>
       </c>
       <c r="I48" t="n">
         <v>3.13</v>
       </c>
-      <c r="J48" t="s">
-        <v>593</v>
+      <c r="J48" t="n">
+        <v>306245</v>
       </c>
       <c r="K48" t="n">
         <v>3.15</v>
       </c>
-      <c r="L48" t="s">
-        <v>594</v>
+      <c r="L48" t="n">
+        <v>497422</v>
       </c>
       <c r="M48" t="n">
         <v>5.11</v>
       </c>
-      <c r="N48" t="s">
-        <v>595</v>
+      <c r="N48" t="n">
+        <v>438765</v>
       </c>
       <c r="O48" t="n">
         <v>4.55</v>
       </c>
-      <c r="P48" t="s">
-        <v>596</v>
+      <c r="P48" t="n">
+        <v>341893</v>
       </c>
       <c r="Q48" t="n">
         <v>3.56</v>
       </c>
-      <c r="R48" t="s">
-        <v>597</v>
+      <c r="R48" t="n">
+        <v>318265</v>
       </c>
       <c r="S48" t="n">
         <v>3.3</v>
       </c>
-      <c r="T48" t="s">
-        <v>598</v>
+      <c r="T48" t="n">
+        <v>279440</v>
       </c>
       <c r="U48" t="n">
         <v>2.92</v>
       </c>
-      <c r="V48" t="s">
-        <v>599</v>
+      <c r="V48" t="n">
+        <v>250015</v>
       </c>
       <c r="W48" t="n">
         <v>2.71</v>
       </c>
-      <c r="X48" t="s">
-        <v>600</v>
+      <c r="X48" t="n">
+        <v>285221</v>
       </c>
       <c r="Y48" t="n">
         <v>3.04</v>
       </c>
-      <c r="Z48" t="s">
-        <v>601</v>
+      <c r="Z48" t="n">
+        <v>286319</v>
       </c>
       <c r="AA48" t="n">
         <v>3.02</v>
       </c>
-      <c r="AB48" t="s">
-        <v>602</v>
+      <c r="AB48" t="n">
+        <v>281698</v>
       </c>
       <c r="AC48" t="n">
         <v>2.97</v>
       </c>
-      <c r="AD48" t="s">
-        <v>603</v>
+      <c r="AD48" t="n">
+        <v>248303</v>
       </c>
       <c r="AE48" t="n">
         <v>2.66</v>
       </c>
-      <c r="AF48" t="s">
-        <v>604</v>
+      <c r="AF48" t="n">
+        <v>201129</v>
       </c>
       <c r="AG48" t="n">
         <v>2.18</v>
@@ -6909,100 +5043,100 @@
     </row>
     <row r="49" spans="1:33">
       <c r="A49" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="B49" t="s">
-        <v>606</v>
+        <v>79</v>
+      </c>
+      <c r="B49" t="n">
+        <v>328219</v>
       </c>
       <c r="C49" t="n">
         <v>3.51</v>
       </c>
-      <c r="D49" t="s">
-        <v>607</v>
+      <c r="D49" t="n">
+        <v>327501</v>
       </c>
       <c r="E49" t="n">
         <v>3.5</v>
       </c>
-      <c r="F49" t="s">
-        <v>608</v>
+      <c r="F49" t="n">
+        <v>327807</v>
       </c>
       <c r="G49" t="n">
         <v>3.47</v>
       </c>
-      <c r="H49" t="s">
-        <v>609</v>
+      <c r="H49" t="n">
+        <v>325630</v>
       </c>
       <c r="I49" t="n">
         <v>3.43</v>
       </c>
-      <c r="J49" t="s">
-        <v>610</v>
+      <c r="J49" t="n">
+        <v>327174</v>
       </c>
       <c r="K49" t="n">
         <v>3.36</v>
       </c>
-      <c r="L49" t="s">
-        <v>611</v>
+      <c r="L49" t="n">
+        <v>328087</v>
       </c>
       <c r="M49" t="n">
         <v>3.37</v>
       </c>
-      <c r="N49" t="s">
-        <v>612</v>
+      <c r="N49" t="n">
+        <v>330750</v>
       </c>
       <c r="O49" t="n">
         <v>3.43</v>
       </c>
-      <c r="P49" t="s">
-        <v>613</v>
+      <c r="P49" t="n">
+        <v>331954</v>
       </c>
       <c r="Q49" t="n">
         <v>3.46</v>
       </c>
-      <c r="R49" t="s">
-        <v>614</v>
+      <c r="R49" t="n">
+        <v>332435</v>
       </c>
       <c r="S49" t="n">
         <v>3.44</v>
       </c>
-      <c r="T49" t="s">
-        <v>615</v>
+      <c r="T49" t="n">
+        <v>332501</v>
       </c>
       <c r="U49" t="n">
         <v>3.47</v>
       </c>
-      <c r="V49" t="s">
-        <v>616</v>
+      <c r="V49" t="n">
+        <v>334764</v>
       </c>
       <c r="W49" t="n">
         <v>3.63</v>
       </c>
-      <c r="X49" t="s">
-        <v>617</v>
+      <c r="X49" t="n">
+        <v>336211</v>
       </c>
       <c r="Y49" t="n">
         <v>3.58</v>
       </c>
-      <c r="Z49" t="s">
-        <v>618</v>
+      <c r="Z49" t="n">
+        <v>290895</v>
       </c>
       <c r="AA49" t="n">
         <v>3.07</v>
       </c>
-      <c r="AB49" t="s">
-        <v>619</v>
+      <c r="AB49" t="n">
+        <v>290485</v>
       </c>
       <c r="AC49" t="n">
         <v>3.06</v>
       </c>
-      <c r="AD49" t="s">
-        <v>620</v>
+      <c r="AD49" t="n">
+        <v>290557</v>
       </c>
       <c r="AE49" t="n">
         <v>3.11</v>
       </c>
-      <c r="AF49" t="s">
-        <v>621</v>
+      <c r="AF49" t="n">
+        <v>291718</v>
       </c>
       <c r="AG49" t="n">
         <v>3.17</v>
@@ -7010,100 +5144,100 @@
     </row>
     <row r="50" spans="1:33">
       <c r="A50" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="B50" t="s">
-        <v>623</v>
+        <v>80</v>
+      </c>
+      <c r="B50" t="n">
+        <v>9692</v>
       </c>
       <c r="C50" t="n">
         <v>0.1</v>
       </c>
-      <c r="D50" t="s">
-        <v>624</v>
+      <c r="D50" t="n">
+        <v>20532</v>
       </c>
       <c r="E50" t="n">
         <v>0.22</v>
       </c>
-      <c r="F50" t="s">
-        <v>625</v>
+      <c r="F50" t="n">
+        <v>24558</v>
       </c>
       <c r="G50" t="n">
         <v>0.26</v>
       </c>
-      <c r="H50" t="s">
-        <v>626</v>
+      <c r="H50" t="n">
+        <v>44318</v>
       </c>
       <c r="I50" t="n">
         <v>0.47</v>
       </c>
-      <c r="J50" t="s">
-        <v>627</v>
+      <c r="J50" t="n">
+        <v>52391</v>
       </c>
       <c r="K50" t="n">
         <v>0.54</v>
       </c>
-      <c r="L50" t="s">
-        <v>628</v>
+      <c r="L50" t="n">
+        <v>53210</v>
       </c>
       <c r="M50" t="n">
         <v>0.55</v>
       </c>
-      <c r="N50" t="s">
-        <v>629</v>
+      <c r="N50" t="n">
+        <v>52112</v>
       </c>
       <c r="O50" t="n">
         <v>0.54</v>
       </c>
-      <c r="P50" t="s">
-        <v>630</v>
+      <c r="P50" t="n">
+        <v>69339</v>
       </c>
       <c r="Q50" t="n">
         <v>0.72</v>
       </c>
-      <c r="R50" t="s">
-        <v>631</v>
+      <c r="R50" t="n">
+        <v>74367</v>
       </c>
       <c r="S50" t="n">
         <v>0.77</v>
       </c>
-      <c r="T50" t="s">
-        <v>632</v>
+      <c r="T50" t="n">
+        <v>74230</v>
       </c>
       <c r="U50" t="n">
         <v>0.78</v>
       </c>
-      <c r="V50" t="s">
-        <v>633</v>
+      <c r="V50" t="n">
+        <v>73389</v>
       </c>
       <c r="W50" t="n">
         <v>0.8</v>
       </c>
-      <c r="X50" t="s">
-        <v>634</v>
+      <c r="X50" t="n">
+        <v>75554</v>
       </c>
       <c r="Y50" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="Z50" t="s">
-        <v>635</v>
+      <c r="Z50" t="n">
+        <v>72521</v>
       </c>
       <c r="AA50" t="n">
         <v>0.76</v>
       </c>
-      <c r="AB50" t="s">
-        <v>636</v>
+      <c r="AB50" t="n">
+        <v>73755</v>
       </c>
       <c r="AC50" t="n">
         <v>0.78</v>
       </c>
-      <c r="AD50" t="s">
-        <v>637</v>
+      <c r="AD50" t="n">
+        <v>76621</v>
       </c>
       <c r="AE50" t="n">
         <v>0.82</v>
       </c>
-      <c r="AF50" t="s">
-        <v>638</v>
+      <c r="AF50" t="n">
+        <v>77484</v>
       </c>
       <c r="AG50" t="n">
         <v>0.84</v>
@@ -7111,100 +5245,100 @@
     </row>
     <row r="51" spans="1:33">
       <c r="A51" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="B51" t="s">
-        <v>640</v>
+        <v>81</v>
+      </c>
+      <c r="B51" t="n">
+        <v>34312</v>
       </c>
       <c r="C51" t="n">
         <v>0.37</v>
       </c>
-      <c r="D51" t="s">
-        <v>641</v>
+      <c r="D51" t="n">
+        <v>33930</v>
       </c>
       <c r="E51" t="n">
         <v>0.36</v>
       </c>
-      <c r="F51" t="s">
-        <v>642</v>
+      <c r="F51" t="n">
+        <v>34148</v>
       </c>
       <c r="G51" t="n">
         <v>0.36</v>
       </c>
-      <c r="H51" t="s">
-        <v>643</v>
+      <c r="H51" t="n">
+        <v>34305</v>
       </c>
       <c r="I51" t="n">
         <v>0.36</v>
       </c>
-      <c r="J51" t="s">
-        <v>644</v>
+      <c r="J51" t="n">
+        <v>34510</v>
       </c>
       <c r="K51" t="n">
         <v>0.35</v>
       </c>
-      <c r="L51" t="s">
-        <v>645</v>
+      <c r="L51" t="n">
+        <v>34205</v>
       </c>
       <c r="M51" t="n">
         <v>0.35</v>
       </c>
-      <c r="N51" t="s">
-        <v>646</v>
+      <c r="N51" t="n">
+        <v>34403</v>
       </c>
       <c r="O51" t="n">
         <v>0.36</v>
       </c>
-      <c r="P51" t="s">
-        <v>647</v>
+      <c r="P51" t="n">
+        <v>34457</v>
       </c>
       <c r="Q51" t="n">
         <v>0.36</v>
       </c>
-      <c r="R51" t="s">
-        <v>648</v>
+      <c r="R51" t="n">
+        <v>34610</v>
       </c>
       <c r="S51" t="n">
         <v>0.36</v>
       </c>
-      <c r="T51" t="s">
-        <v>649</v>
+      <c r="T51" t="n">
+        <v>34260</v>
       </c>
       <c r="U51" t="n">
         <v>0.36</v>
       </c>
-      <c r="V51" t="s">
-        <v>650</v>
+      <c r="V51" t="n">
+        <v>34382</v>
       </c>
       <c r="W51" t="n">
         <v>0.37</v>
       </c>
-      <c r="X51" t="s">
-        <v>651</v>
+      <c r="X51" t="n">
+        <v>34463</v>
       </c>
       <c r="Y51" t="n">
         <v>0.37</v>
       </c>
-      <c r="Z51" t="s">
-        <v>652</v>
+      <c r="Z51" t="n">
+        <v>133612</v>
       </c>
       <c r="AA51" t="n">
         <v>1.41</v>
       </c>
-      <c r="AB51" t="s">
-        <v>653</v>
+      <c r="AB51" t="n">
+        <v>133707</v>
       </c>
       <c r="AC51" t="n">
         <v>1.41</v>
       </c>
-      <c r="AD51" t="s">
-        <v>654</v>
+      <c r="AD51" t="n">
+        <v>133960</v>
       </c>
       <c r="AE51" t="n">
         <v>1.43</v>
       </c>
-      <c r="AF51" t="s">
-        <v>655</v>
+      <c r="AF51" t="n">
+        <v>133246</v>
       </c>
       <c r="AG51" t="n">
         <v>1.45</v>
@@ -7212,100 +5346,100 @@
     </row>
     <row r="52" spans="1:33">
       <c r="A52" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="B52" t="s">
-        <v>657</v>
+        <v>82</v>
+      </c>
+      <c r="B52" t="n">
+        <v>483459</v>
       </c>
       <c r="C52" t="n">
         <v>5.17</v>
       </c>
-      <c r="D52" t="s">
-        <v>658</v>
+      <c r="D52" t="n">
+        <v>471538</v>
       </c>
       <c r="E52" t="n">
         <v>5.04</v>
       </c>
-      <c r="F52" t="s">
-        <v>659</v>
+      <c r="F52" t="n">
+        <v>455925</v>
       </c>
       <c r="G52" t="n">
         <v>4.83</v>
       </c>
-      <c r="H52" t="s">
-        <v>660</v>
+      <c r="H52" t="n">
+        <v>443665</v>
       </c>
       <c r="I52" t="n">
         <v>4.67</v>
       </c>
-      <c r="J52" t="s">
-        <v>661</v>
+      <c r="J52" t="n">
+        <v>445162</v>
       </c>
       <c r="K52" t="n">
         <v>4.57</v>
       </c>
-      <c r="L52" t="s">
-        <v>662</v>
+      <c r="L52" t="n">
+        <v>445567</v>
       </c>
       <c r="M52" t="n">
         <v>4.58</v>
       </c>
-      <c r="N52" t="s">
-        <v>663</v>
+      <c r="N52" t="n">
+        <v>447946</v>
       </c>
       <c r="O52" t="n">
         <v>4.64</v>
       </c>
-      <c r="P52" t="s">
-        <v>664</v>
+      <c r="P52" t="n">
+        <v>448910</v>
       </c>
       <c r="Q52" t="n">
         <v>4.67</v>
       </c>
-      <c r="R52" t="s">
-        <v>665</v>
+      <c r="R52" t="n">
+        <v>449739</v>
       </c>
       <c r="S52" t="n">
         <v>4.66</v>
       </c>
-      <c r="T52" t="s">
-        <v>666</v>
+      <c r="T52" t="n">
+        <v>349485</v>
       </c>
       <c r="U52" t="n">
         <v>3.65</v>
       </c>
-      <c r="V52" t="s">
-        <v>667</v>
+      <c r="V52" t="n">
+        <v>352135</v>
       </c>
       <c r="W52" t="n">
         <v>3.81</v>
       </c>
-      <c r="X52" t="s">
-        <v>668</v>
+      <c r="X52" t="n">
+        <v>354277</v>
       </c>
       <c r="Y52" t="n">
         <v>3.78</v>
       </c>
-      <c r="Z52" t="s">
-        <v>669</v>
+      <c r="Z52" t="n">
+        <v>320232</v>
       </c>
       <c r="AA52" t="n">
         <v>3.37</v>
       </c>
-      <c r="AB52" t="s">
-        <v>670</v>
+      <c r="AB52" t="n">
+        <v>319719</v>
       </c>
       <c r="AC52" t="n">
         <v>3.37</v>
       </c>
-      <c r="AD52" t="s">
-        <v>671</v>
+      <c r="AD52" t="n">
+        <v>316172</v>
       </c>
       <c r="AE52" t="n">
         <v>3.38</v>
       </c>
-      <c r="AF52" t="s">
-        <v>672</v>
+      <c r="AF52" t="n">
+        <v>315443</v>
       </c>
       <c r="AG52" t="n">
         <v>3.43</v>
@@ -7313,100 +5447,100 @@
     </row>
     <row r="53" spans="1:33">
       <c r="A53" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="B53" t="s">
-        <v>674</v>
+        <v>83</v>
+      </c>
+      <c r="B53" t="n">
+        <v>8172897</v>
       </c>
       <c r="C53" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="D53" t="s">
-        <v>675</v>
+      <c r="D53" t="n">
+        <v>7859434</v>
       </c>
       <c r="E53" t="n">
         <v>83.98</v>
       </c>
-      <c r="F53" t="s">
-        <v>676</v>
+      <c r="F53" t="n">
+        <v>7903315</v>
       </c>
       <c r="G53" t="n">
         <v>83.77</v>
       </c>
-      <c r="H53" t="s">
-        <v>677</v>
+      <c r="H53" t="n">
+        <v>7912704</v>
       </c>
       <c r="I53" t="n">
         <v>83.3</v>
       </c>
-      <c r="J53" t="s">
-        <v>678</v>
+      <c r="J53" t="n">
+        <v>7988080</v>
       </c>
       <c r="K53" t="n">
         <v>82.08</v>
       </c>
-      <c r="L53" t="s">
-        <v>679</v>
+      <c r="L53" t="n">
+        <v>7923195</v>
       </c>
       <c r="M53" t="n">
         <v>81.45</v>
       </c>
-      <c r="N53" t="s">
-        <v>680</v>
+      <c r="N53" t="n">
+        <v>7926603</v>
       </c>
       <c r="O53" t="n">
         <v>82.16</v>
       </c>
-      <c r="P53" t="s">
-        <v>681</v>
+      <c r="P53" t="n">
+        <v>7814235</v>
       </c>
       <c r="Q53" t="n">
         <v>81.38</v>
       </c>
-      <c r="R53" t="s">
-        <v>682</v>
+      <c r="R53" t="n">
+        <v>7747273</v>
       </c>
       <c r="S53" t="n">
         <v>80.28</v>
       </c>
-      <c r="T53" t="s">
-        <v>683</v>
+      <c r="T53" t="n">
+        <v>7679599</v>
       </c>
       <c r="U53" t="n">
         <v>80.26000000000001</v>
       </c>
-      <c r="V53" t="s">
-        <v>684</v>
+      <c r="V53" t="n">
+        <v>7397521</v>
       </c>
       <c r="W53" t="n">
         <v>80.14</v>
       </c>
-      <c r="X53" t="s">
-        <v>685</v>
+      <c r="X53" t="n">
+        <v>7418780</v>
       </c>
       <c r="Y53" t="n">
         <v>79.06999999999999</v>
       </c>
-      <c r="Z53" t="s">
-        <v>686</v>
+      <c r="Z53" t="n">
+        <v>7401560</v>
       </c>
       <c r="AA53" t="n">
         <v>77.98999999999999</v>
       </c>
-      <c r="AB53" t="s">
-        <v>687</v>
+      <c r="AB53" t="n">
+        <v>7301833</v>
       </c>
       <c r="AC53" t="n">
         <v>76.87</v>
       </c>
-      <c r="AD53" t="s">
-        <v>688</v>
+      <c r="AD53" t="n">
+        <v>7263503</v>
       </c>
       <c r="AE53" t="n">
         <v>77.75</v>
       </c>
-      <c r="AF53" t="s">
-        <v>689</v>
+      <c r="AF53" t="n">
+        <v>7209833</v>
       </c>
       <c r="AG53" t="n">
         <v>78.3</v>
@@ -7414,100 +5548,100 @@
     </row>
     <row r="54" spans="1:33">
       <c r="A54" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="B54" t="s">
-        <v>691</v>
+        <v>84</v>
+      </c>
+      <c r="B54" t="n">
+        <v>23144</v>
       </c>
       <c r="C54" t="n">
         <v>0.25</v>
       </c>
-      <c r="D54" t="s">
-        <v>692</v>
+      <c r="D54" t="n">
+        <v>17211</v>
       </c>
       <c r="E54" t="n">
         <v>0.18</v>
       </c>
-      <c r="F54" t="s">
-        <v>693</v>
+      <c r="F54" t="n">
+        <v>18490</v>
       </c>
       <c r="G54" t="n">
         <v>0.2</v>
       </c>
-      <c r="H54" t="s">
-        <v>694</v>
+      <c r="H54" t="n">
+        <v>7486</v>
       </c>
       <c r="I54" t="n">
         <v>0.08</v>
       </c>
-      <c r="J54" t="s">
-        <v>695</v>
+      <c r="J54" t="n">
+        <v>35275</v>
       </c>
       <c r="K54" t="n">
         <v>0.36</v>
       </c>
-      <c r="L54" t="s">
-        <v>696</v>
+      <c r="L54" t="n">
+        <v>11056</v>
       </c>
       <c r="M54" t="n">
         <v>0.11</v>
       </c>
-      <c r="N54" t="s">
-        <v>697</v>
+      <c r="N54" t="n">
+        <v>17375</v>
       </c>
       <c r="O54" t="n">
         <v>0.18</v>
       </c>
-      <c r="P54" t="s">
-        <v>698</v>
+      <c r="P54" t="n">
+        <v>14488</v>
       </c>
       <c r="Q54" t="n">
         <v>0.15</v>
       </c>
-      <c r="R54" t="s">
-        <v>699</v>
+      <c r="R54" t="n">
+        <v>17718</v>
       </c>
       <c r="S54" t="n">
         <v>0.18</v>
       </c>
-      <c r="T54" t="s">
-        <v>700</v>
+      <c r="T54" t="n">
+        <v>4016</v>
       </c>
       <c r="U54" t="n">
         <v>0.04</v>
       </c>
-      <c r="V54" t="s">
-        <v>701</v>
+      <c r="V54" t="n">
+        <v>8993</v>
       </c>
       <c r="W54" t="n">
         <v>0.1</v>
       </c>
-      <c r="X54" t="s">
-        <v>702</v>
+      <c r="X54" t="n">
+        <v>2651</v>
       </c>
       <c r="Y54" t="n">
         <v>0.03</v>
       </c>
-      <c r="Z54" t="s">
-        <v>703</v>
+      <c r="Z54" t="n">
+        <v>10042</v>
       </c>
       <c r="AA54" t="n">
         <v>0.11</v>
       </c>
-      <c r="AB54" t="s">
-        <v>704</v>
+      <c r="AB54" t="n">
+        <v>29380</v>
       </c>
       <c r="AC54" t="n">
         <v>0.31</v>
       </c>
-      <c r="AD54" t="s">
-        <v>705</v>
+      <c r="AD54" t="n">
+        <v>17036</v>
       </c>
       <c r="AE54" t="n">
         <v>0.18</v>
       </c>
-      <c r="AF54" t="s">
-        <v>706</v>
+      <c r="AF54" t="n">
+        <v>5876</v>
       </c>
       <c r="AG54" t="n">
         <v>0.06</v>
@@ -7515,70 +5649,70 @@
     </row>
     <row r="55" spans="1:33">
       <c r="A55" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="B55" t="s">
-        <v>239</v>
+        <v>85</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
       </c>
       <c r="C55" t="s"/>
-      <c r="D55" t="s">
-        <v>239</v>
+      <c r="D55" t="n">
+        <v>0</v>
       </c>
       <c r="E55" t="s"/>
-      <c r="F55" t="s">
-        <v>239</v>
+      <c r="F55" t="n">
+        <v>0</v>
       </c>
       <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>239</v>
+      <c r="H55" t="n">
+        <v>0</v>
       </c>
       <c r="I55" t="s"/>
-      <c r="J55" t="s">
-        <v>239</v>
+      <c r="J55" t="n">
+        <v>0</v>
       </c>
       <c r="K55" t="s"/>
-      <c r="L55" t="s">
-        <v>239</v>
+      <c r="L55" t="n">
+        <v>0</v>
       </c>
       <c r="M55" t="s"/>
-      <c r="N55" t="s">
-        <v>239</v>
+      <c r="N55" t="n">
+        <v>0</v>
       </c>
       <c r="O55" t="s"/>
-      <c r="P55" t="s">
-        <v>239</v>
+      <c r="P55" t="n">
+        <v>0</v>
       </c>
       <c r="Q55" t="s"/>
-      <c r="R55" t="s">
-        <v>239</v>
+      <c r="R55" t="n">
+        <v>0</v>
       </c>
       <c r="S55" t="s"/>
-      <c r="T55" t="s">
-        <v>239</v>
+      <c r="T55" t="n">
+        <v>0</v>
       </c>
       <c r="U55" t="s"/>
-      <c r="V55" t="s">
-        <v>239</v>
+      <c r="V55" t="n">
+        <v>0</v>
       </c>
       <c r="W55" t="s"/>
-      <c r="X55" t="s">
-        <v>239</v>
+      <c r="X55" t="n">
+        <v>0</v>
       </c>
       <c r="Y55" t="s"/>
-      <c r="Z55" t="s">
-        <v>239</v>
+      <c r="Z55" t="n">
+        <v>0</v>
       </c>
       <c r="AA55" t="s"/>
-      <c r="AB55" t="s">
-        <v>239</v>
+      <c r="AB55" t="n">
+        <v>0</v>
       </c>
       <c r="AC55" t="s"/>
-      <c r="AD55" t="s">
-        <v>239</v>
+      <c r="AD55" t="n">
+        <v>0</v>
       </c>
       <c r="AE55" t="s"/>
-      <c r="AF55" t="s">
-        <v>239</v>
+      <c r="AF55" t="n">
+        <v>0</v>
       </c>
       <c r="AG55" t="s"/>
     </row>
